--- a/02_programme_task/xlsx_out/45.Romans.xlsx
+++ b/02_programme_task/xlsx_out/45.Romans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,4411 +453,5275 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, a servan16 t of Christ Jesus, called to be an apostle, set apart for the gospel of God, 2</t>
+          <t>The Letter of Paul to the Romans Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romans 1:2</t>
+          <t>Romans 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>which he promised beforehand through his prophets in the holy Scriptures, 3</t>
+          <t>Paul, a a servan t of Christ Jesus, b called to be an apostle, c set apart for the gospel of God,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romans 1:3</t>
+          <t>Romans 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>concerning his Son, who was descended from Davi16 d according to the flesh 4</t>
+          <t>which d he promised beforehand e through his prophets in the holy Scriptures,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romans 1:4</t>
+          <t>Romans 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>and was declared to be the Son of God in power according to the Spirit of holiness by his resurrection from the dead, Jesus Christ our Lord, 5</t>
+          <t>concerning his Son, f who was descended from Davi d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romans 1:5</t>
+          <t>Romans 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>through whom we have received grace and apostleship to bring about the obedience of faith for the sake of his name among all the nations, 6</t>
+          <t>g according to the flesh</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romans 1:6</t>
+          <t>Romans 1:4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>including you who are called to belong to Jesus Christ, 7</t>
+          <t>and h was declared to be the Son of God i in power according to the Spirit of holiness by his resurrection from the dead, Jesus Christ our Lord,</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romans 1:7</t>
+          <t>Romans 1:5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>To all those in Rome who are loved by God and called to be saints: Grace to you and peace from God our Father and the Lord Jesus Christ. Longing to Go to Rome 8</t>
+          <t>through whom j we have received grace and k apostleship l to bring about the obedience of faith for the sake of his name m among all the nations,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romans 1:8</t>
+          <t>Romans 1:6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>First, I thank my God through Jesus Christ for all of you, because your faith is proclaimed in all the world. 9</t>
+          <t>including you who are n called to belong to Jesus Christ,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romans 1:10</t>
+          <t>Romans 1:7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>always in my prayers, asking that somehow by God's will I may now at last succeed in coming to you.</t>
+          <t>To all those in Rome who are loved by God and called to be saints: o Grace to you and peace from God our Father and the Lord Jesus Christ. Longing to Go to Rome</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romans 1:11</t>
+          <t>Romans 1:8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>For I long to see you, that I may impart to you some spiritual gift to strengthen yo16 u16</t>
+          <t>First, p I thank my God through Jesus Christ for all of you, q because your faith is proclaimed in all the world.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romans 1:12</t>
+          <t>Romans 1:9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>that is, that we may be mutually encouraged by each other's faith, both yours and mine.</t>
+          <t>r For God is my witness, s whom I serve with my spirit in the gospel of his Son, t that without ceasing I mention you</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romans 1:13</t>
+          <t>Romans 1:10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I o not want you to be unaware, brothers, that I have often intended to come to you (but thus far have been prevented), in order that I may reap some harvest among you as well as among the rest of the Gentiles.</t>
+          <t>always in my prayers, asking that somehow u by God s will I may now at last succeed in coming to you.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romans 1:15</t>
+          <t>Romans 1:11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>So I am eager to preach the gospel to you also who are in Rome. The Righteous Shall Live by Faith</t>
+          <t>For v I long to see you, that I may impart to you some spiritual gift to strengthen yo u</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romans 1:16</t>
+          <t>Romans 1:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>For I m not ashamed of the gospel, for it is the power of God for salvation to everyone who believes, to the Jew first and also to the Greek.</t>
+          <t>that is, that we may be mutually encouraged w by each other s faith, both yours and mine.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romans 1:17</t>
+          <t>Romans 1:13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For in it the righteousness of God is revealed from faith for faith, as it is written, The righteous shall live by faith. God's Wrath on Unrighteousness</t>
+          <t>I do not want you to be unaware, brothers, that x I have often intended to come to you, in order that I may reap some z harvest among you as well as among the rest of the Gentiles.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romans 1:18</t>
+          <t>Romans 1:14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>For the wrath of God is revealed from heaven against all ungodliness and unrighteousness of men, who by their unrighteousness suppress the truth.</t>
+          <t>a I am under obligation both to Greeks and to b barbarians, both to the wise and to the foolish.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romans 1:19</t>
+          <t>Romans 1:15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>For what can be known about God is plain to them, because God has shown it to them.</t>
+          <t>So I am eager to preach the gospel to you also who are in Rome. The Righteous Shall Live by Faith</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Romans 1:20</t>
+          <t>Romans 1:16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>For his invisible attributes, namely, his eternal power and divine nature, have been clearly perceived, ever since the creation of the world, in the things that have been made. So they are without excuse.</t>
+          <t>For d I am not ashamed of the gospel, for it is e the power of God for salvation to everyone who believes, to the Jew f first and also to g the Greek.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Romans 1:21</t>
+          <t>Romans 1:17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>For although they knew God, they did not honor him as God or give thanks to him, but they became futile in their thinking, and their foolish hearts were darkened.</t>
+          <t>For in it h the righteousness of God is revealed i from faith for faith,</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Romans 1:23</t>
+          <t>Romans 1:18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>and exchanged the glory of the immortal God for images resembling mortal man and birds and animals and creeping things.</t>
+          <t>j as it is written, The righteous shall live by faith. God s Wrath on Unrighteousness</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Romans 1:24</t>
+          <t>Romans 1:18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Therefore God gave them up in the lusts of their hearts to impurity, to the dishonoring of their bodies among themselves,</t>
+          <t>For k the wrath of God l is revealed from heaven against all ungodliness and unrighteousness of men, who by their unrighteousness suppress the truth.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Romans 1:25</t>
+          <t>Romans 1:19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>because they exchanged the truth about God for a lie and worshiped and served the creature rather than the Creator, who is blessed forever! Amen.</t>
+          <t>For what can be m known about God is plain to them, because God has shown it to them.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Romans 1:26</t>
+          <t>Romans 1:20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>For this reason God gave them up to dishonorable passions. For their women exchanged natural relations for those that are contrary to nature;</t>
+          <t>For his invisible attributes, namely, his eternal power and divine nature, n have been clearly perceived, ever since the creation of the world, in the things that have been made. So they are without excuse.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Romans 1:27</t>
+          <t>Romans 1:21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>and the men likewise gave up natural relations with women and were consumed with passion for one another, men committing shameless acts with men and receiving in themselves the due penalty for their error.</t>
+          <t>For although they knew God, they did not honor him as God or give thanks to him, but they o became futile in their thinking, and their foolish hearts were darkened.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Romans 1:28</t>
+          <t>Romans 1:22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>And since they did not see fit to acknowledge God, God gave them up to a debased mind to do what ought not to be done.</t>
+          <t>p Claiming to be wise, they became fools,</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romans 1:29</t>
+          <t>Romans 1:23</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>They were filled with all manner of unrighteousness, evil, covetousness, malice. They are full of envy, murder, strife, deceit, maliciousness. They are gossips,</t>
+          <t>and q exchanged the glory of r the immortal God for images resembling mortal man and birds and animals and creeping things.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Romans 1:30</t>
+          <t>Romans 1:24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>slanderers, haters of God, insolent, haughty, boastful, inventors of evil, disobedient to parents,</t>
+          <t>Therefore s God gave them up in the lusts of their hearts to impurity, to t the dishonoring of their bodies among themselves,</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Romans 1:31</t>
+          <t>Romans 1:25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>foolish, faithless, heartless, ruthless.</t>
+          <t>because they exchanged the truth about God for u a lie and worshiped and served the creature rather than the Creator, v who is blessed forever! Amen.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Romans 1:32</t>
+          <t>Romans 1:26</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Though they know God's righteous decree that those who practice such things deserve to die, they not only do them but give approval to those who practice them. God's Righteous Judgment 2</t>
+          <t>For this reason w God gave them up to x dishonorable passions. For their women exchanged natural relations for those that are contrary to nature;</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Romans 2:1</t>
+          <t>Romans 1:27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Therefore you have no excuse, O man, every one of you who judges. For in passing judgment on another you condemn yourself, because you, the judge, practice the very same things. 2</t>
+          <t>and the men likewise gave up natural relations with women and were consumed with passion for one another, y men committing shameless acts with men and receiving in themselves the due penalty for their error.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Romans 2:2</t>
+          <t>Romans 1:28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>We know that the judgment of God rightly falls on those who practice such things. 3</t>
+          <t>And since they did not see fit to acknowledge God, z God gave them up to a a debased mind to do b what ought not to be done.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Romans 2:3</t>
+          <t>Romans 1:29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Do you suppose, O ma n16 you who judge those who practice such things and yet do them yoursel16 f that you will escape the judgment of God 4</t>
+          <t>They were filled with all manner of unrighteousness, evil, covetousness, malice. They are full of envy, murder, strife, deceit, maliciousness. They are gossips,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Romans 2:4</t>
+          <t>Romans 1:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Or do you presume on the riches of his kindness and forbearance and patience, not knowing that God's kindness is meant to lead you to repentance 5</t>
+          <t>slanderers, haters of God, insolent, haughty, boastful, inventors of evil, disobedient to parents,</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Romans 2:5</t>
+          <t>Romans 1:31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>But because of your hard and impenitent heart you are storing up wrath for yourself on the day of wrath when God's righteous judgment will be revealed. 6</t>
+          <t>foolish, faithless, heartless, ruthless.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Romans 2:7</t>
+          <t>Romans 1:32</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>to those who by patience in well- doing seek for glory and honor and immortality, he will give eternal life; 8</t>
+          <t>Though they know c God s righteous decree that those who practice such things d deserve to die, they not only do them but e give approval to those who practice them. God s Righteous Judgment</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Romans 2:8</t>
+          <t>Romans 2:1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>but for those who are self- seekin16 g and do not obey the truth, but obey unrighteousness, there will be wrath and fury. 9</t>
+          <t>Therefore you have f no excuse, O man, every one of you who judges. For g in passing judgment on another you condemn yourself, because you, the judge, practice the very same things.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Romans 2:9</t>
+          <t>Romans 2:2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>There will be tribulation and distress for every human being who does evil, the Jew first and also the Greek,</t>
+          <t>We know that the judgment of God rightly falls on those who practice such things.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Romans 2:10</t>
+          <t>Romans 2:3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>but glory and honor and peace for everyone who does good, the Jew first and also the Greek.</t>
+          <t>Do you suppose, O ma n you who judge those who practice such things and yet do them yoursel f that you will escape the judgment of God?</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Romans 2:11</t>
+          <t>Romans 2:4</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>For God shows no partiality. God's Judgment and the Law</t>
+          <t>Or do you presume on h the riches of his kindness and i forbearance and j patience, k not knowing that God s kindness is meant to lead you to repentance?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Romans 2:12</t>
+          <t>Romans 2:5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>For all who have sinned without the law will also perish without the law, and all who have sinned under the law will be judged by the law.</t>
+          <t>But because of your hard and impenitent heart you are l storing up m wrath for yourself on the day of wrath when God s righteous judgment will be revealed.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Romans 2:13</t>
+          <t>Romans 2:6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>For it is not the hearers of the law who are righteous before God, but the doers of the law who will be justified.</t>
+          <t>n He will render to each one according to his works:</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Romans 2:14</t>
+          <t>Romans 2:7</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>For when Gentiles, who do not have the law, by nature do what the law requires, they are a law to themselves, even though they do not have the law.</t>
+          <t>to those who o by patience in well-doing seek for glory and honor and immortality, he will give eternal life;</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Romans 2:15</t>
+          <t>Romans 2:8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>They show that the work of the law is written on their hearts, while their conscience also bears witness, and their conflicting thoughts accuse or even excuse them</t>
+          <t>but for those who are self-seekin g and p do not obey the truth, but obey unrighteousness, there will be wrath and fury.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Romans 2:17</t>
+          <t>Romans 2:9</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>But if you call yourself a Jew and rely on the law and boast in God</t>
+          <t>There will be tribulation and distress q for every human being who does evil, the Jew r first and also the Greek,</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Romans 2:18</t>
+          <t>Romans 2:10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>and know his will and approve what is excellent, because you are instructed from the law;</t>
+          <t>but glory and honor and s peace for everyone who does good, t the Jew first and also the Greek.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Romans 2:19</t>
+          <t>Romans 2:11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>and if you are sure that you yourself are a guide to the blind, a light to those who are in darkness,</t>
+          <t>For u God shows no partiality. God s Judgment and the Law</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Romans 2:20</t>
+          <t>Romans 2:12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>an instructor of the foolish, a teacher of children, having in the law the embodiment of knowledge and trut16 h16</t>
+          <t>For all who have sinned v without the law will also perish without the law, and all who have sinned under the law will be judged by the law.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Romans 2:22</t>
+          <t>Romans 2:13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>You who say that one must not commit adultery, do you commit adultery You who abhor idols, do you rob temples</t>
+          <t>For w it is not the hearers of the law who are righteous before God, but the doers of the law who will be justified.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Romans 2:23</t>
+          <t>Romans 2:14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>You who boast in the law dishonor God by breaking the law.</t>
+          <t>For when Gentiles, who do not have the law, x by nature do what the law requires, they are a law to themselves, even though they do not have the law.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Romans 2:24</t>
+          <t>Romans 2:15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>For, as it is written, The name of God is blasphemed among the Gentiles because of you.</t>
+          <t>They show that the work of the law is y written on their hearts, while their conscience also bears witness, and their conflicting thoughts accuse or even excuse them</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Romans 2:25</t>
+          <t>Romans 2:16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>For circumcision indeed is of value if you obey the law, but if you break the law, your circumcision becomes uncircumcision.</t>
+          <t>z on that day when, a according to my gospel, God judges b the secrets of men c by Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Romans 2:26</t>
+          <t>Romans 2:17</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>So, if a man who is uncircumcised keeps the precepts of the law, will not his uncircumcision be regarde16 d as circumcision</t>
+          <t>But if you call yourself a Jew and d rely on the law and boast in God</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Romans 2:27</t>
+          <t>Romans 2:18</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Then he who is physicall16 y uncircumcised but keeps the law will condemn you who have the written cod16 e and circumcision but break the law.</t>
+          <t>and know his will and approve what is excellent, because you are instructed from the law;</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Romans 2:28</t>
+          <t>Romans 2:19</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>For no one is a Jew who is merely one outwardly, nor is circumcision outward and physical.</t>
+          <t>and if you are sure that you yourself are e a guide to the blind, a light to those who are in darkness,</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Romans 2:29</t>
+          <t>Romans 2:20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>But a Jew is one inwardly, and circumcision is a matter of the heart, by the Spirit, not by the letter. His praise is not from man but from God. God's Righteousness Upheld 3</t>
+          <t>an instructor of the foolish, a teacher of children, having in the law f the embodiment of g knowledge and trut h</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Romans 3:1</t>
+          <t>Romans 2:21</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Then what advantage has the Jew Or what is the value of circumcision 2</t>
+          <t>h you then who teach others, do you not teach yourself? While you preach against stealing, do you steal?</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Romans 3:2</t>
+          <t>Romans 2:22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Much in every way. To begin with, the Jews were entrusted with the oracles of God. 3</t>
+          <t>You who say that one must not commit adultery, do you commit adultery? You who abhor idols, do you i rob temples?</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Romans 3:4</t>
+          <t>Romans 2:23</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>By no means! Let God be true though every one were a liar, as it is written, - That you may be justified in your words, - and prevail when you are judged. 5</t>
+          <t>You who j boast in the law k dishonor God by breaking the law.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Romans 3:5</t>
+          <t>Romans 2:24</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>But if our unrighteousness serves to show the righteousness of God, what shall we say That God is unrighteous to inflict wrath on us ( I speak in a human way.) 6</t>
+          <t>For, l as it is written, The name of God is blasphemed m among the Gentiles because of you.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Romans 3:6</t>
+          <t>Romans 2:25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>By no means! For then how could God judge the world 7</t>
+          <t>For circumcision indeed is of value n if you obey the law, but if you break the law, your circumcision becomes uncircumcision.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Romans 3:7</t>
+          <t>Romans 2:26</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>But if through my lie God's truth abounds to his glory, why am I still being condemned as a sinner 8</t>
+          <t>So, if o a man who is uncircumcised keeps p the precepts of the law, will not his uncircumcision be regarde d as circumcision?</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Romans 3:8</t>
+          <t>Romans 2:27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>And why not do evil that good may come as some people slanderously charge us with saying. Their condemnation is just. No One Is Righteous 9</t>
+          <t>Then he who is physicall y uncircumcised but keeps the law q will condemn you who have r the written cod e and circumcision but break the law.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Romans 3:9</t>
+          <t>Romans 2:28</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What then Are we Jew's any better off No, not at all. For we have already charged that all, both Jews and Greeks, are under sin,</t>
+          <t>For s no one is a Jew t who is merely one outwardly, nor is circumcision outward and physical.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Romans 3:10</t>
+          <t>Romans 2:29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>as it is written: - None is righteous, no, not one; -</t>
+          <t>But a Jew is one u inwardly, and v circumcision is a matter of the heart, by the Spirit, not by the letter. w His praise is not from man but from God. God s Righteousness Upheld</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Romans 3:11</t>
+          <t>Romans 3:1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>no one understands; no one seeks for God. -</t>
+          <t>Then what advantage has the Jew? Or what is the value of circumcision?</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Romans 3:12</t>
+          <t>Romans 3:2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>All have turned aside; together they have become worthless; - no one does good, not even one. -</t>
+          <t>Much in every way. To begin with, x the Jews were entrusted with y the oracles of God.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Romans 3:13</t>
+          <t>Romans 3:3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Their throat is an open grave; - they use their tongues to deceive. - The venom of asps is under their lips. -</t>
+          <t>z What if some were unfaithful? a Does their faithlessness nullify the faithfulness of God?</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Romans 3:14</t>
+          <t>Romans 3:4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Their mouth is full of curses and bitterness. -</t>
+          <t>By no means! b Let God be true though c every one were a liar, as it is written, d That you may be justified in your words, and prevail when you e are judged.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Romans 3:15</t>
+          <t>Romans 3:5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Their feet are swift to shed blood; -</t>
+          <t>But if our unrighteousness serves to show the righteousness of God, what shall we say? That God is unrighteous to inflict f wrath on us?</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Romans 3:16</t>
+          <t>Romans 3:6</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>in their paths are ruin and misery, -</t>
+          <t>By no means! For then how could h God judge the world?</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Romans 3:17</t>
+          <t>Romans 3:7</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>and the way of peace they have not known. -</t>
+          <t>But if through my lie God s truth abounds to his glory, i why am I still being condemned as a sinner?</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Romans 3:18</t>
+          <t>Romans 3:8</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>There is no fear of God before their eyes.</t>
+          <t>And why not j do evil that good may come? as some people slanderously charge us with saying. Their condemnation is just. No One Is Righteous</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Romans 3:19</t>
+          <t>Romans 3:9</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Now we know that whatever the law says it speaks to those who are under the law, so that every mouth may be stopped, and the whole world may be held accountable to God.</t>
+          <t>What then? Are we Jew s any better off? No, not at all. For we have already charged that all, both k Jews and l Greeks, are m under sin,</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Romans 3:20</t>
+          <t>Romans 3:10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>For by works of the law no human bein16 g will be justified in his sight, since through the law comes knowledge of sin. The Righteousness of God Through Faith</t>
+          <t>as it is written: n None is righteous, no, not one;</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Romans 3:21</t>
+          <t>Romans 3:11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>But now the righteousness of God has been manifested apart from the law, although the Law and the Prophets bear witness to i16 t16</t>
+          <t>no one understands; no one seeks for God.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Romans 3:22</t>
+          <t>Romans 3:12</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>the righteousness of God through faith in Jesus Christ for all who believe. For there is no distinction:</t>
+          <t>All have turned aside; together they have become worthless; no one does good, not even one.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Romans 3:23</t>
+          <t>Romans 3:13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>for all have sinned and fall short of the glory of God,</t>
+          <t>o Their throat is p an open grave; they use their tongues to deceive. q The venom of asps is under their lips.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Romans 3:25</t>
+          <t>Romans 3:14</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>whom God put forward as a propitiation by his blood, to be received by faith. This was to show God's righteousness, because in his divine forbearance he had passed over former sins.</t>
+          <t>r Their mouth is full of curses and bitterness.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Romans 3:26</t>
+          <t>Romans 3:15</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>It was to show his righteousness at the pres173 ent time, so that he might be just and the justifier of the one who has faith in Jesus.</t>
+          <t>s Their feet are swift to shed blood;</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Romans 3:28</t>
+          <t>Romans 3:16</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>For we hold that one is justified by faith apart from works of the law.</t>
+          <t>in their paths are ruin and misery,</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Romans 3:29</t>
+          <t>Romans 3:17</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Or is God the God of Jews only Is he not the God of Gentiles also Yes, of Gentiles also,</t>
+          <t>and t the way of peace they have not known.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Romans 3:30</t>
+          <t>Romans 3:18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>since God is on16 e who will justify the circumcised by faith and the uncircumcised through faith.</t>
+          <t>u There is no fear of God before their eyes.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Romans 3:31</t>
+          <t>Romans 3:19</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Do we then overthrow the law by this faith By no means! On the contrary, we uphold the law. Abraham Justified by Faith 4</t>
+          <t>Now we know that whatever v the law says it speaks to those who are under the law, w so that every mouth may be stopped, and x the whole world may be held accountable to God.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Romans 4:1</t>
+          <t>Romans 3:20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>What then shall we say was gained by Abraham, our forefather according to the flesh 2</t>
+          <t>For y by works of the law no human bein g will be justified in his sight, since z through the law comes knowledge of sin. The Righteousness of God Through Faith</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Romans 4:2</t>
+          <t>Romans 3:21</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>For if Abraham was justified by works, he has something to boast about, but not before God. 3</t>
+          <t>But now a the righteousness of God b has been manifested apart from the law, although c the Law and the Prophets bear witness to i t</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Romans 4:3</t>
+          <t>Romans 3:22</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>For what does the Scripture say Abraham believed God, and it was counted to him as righteousness. 4</t>
+          <t>the righteousness of God d through faith in Jesus Christ for all who believe. e For there is no distinction:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Romans 4:4</t>
+          <t>Romans 3:23</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Now to the one who works, his wages are not counted as a gift but as his due. 5</t>
+          <t>for f all have sinned and fall short of the glory of God,</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Romans 4:5</t>
+          <t>Romans 3:24</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>And to the one who does not work but believes i16 n him who justifies the ungodly, his faith is counted as righteousness, 6</t>
+          <t>g and are justified h by his grace as a gift, i through the redemption that is in Christ Jesus,</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Romans 4:6</t>
+          <t>Romans 3:25</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>just as David also speaks of the blessing of the one to whom God counts righteousness apart from works: -</t>
+          <t>whom God j put forward as k a propitiation l by his blood, to be received by faith. This was to show God s righteousness, because in m his divine forbearance he had passed over n former sins.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Romans 4:7</t>
+          <t>Romans 3:26</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Blessed are those whose lawless deeds are forgiven, - and whose sins are covered; -</t>
+          <t>It was to show his righteousness at the pres?ent time, so that he might be just and the justifier of the one who has faith in Jesus.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Romans 4:8</t>
+          <t>Romans 3:27</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>blessed is the man against whom the Lord will not count his sin. 9</t>
+          <t>o Then what becomes of our boasting? It is excluded. By what kind of law? By a law of works? No, but by the law of faith.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Romans 4:9</t>
+          <t>Romans 3:28</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Is this blessing then only for the circumcised, or also for the uncircumcised For we say that faith was counted to Abraham as righteousness.</t>
+          <t>For we hold that one is justified by faith p apart from works of the law.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Romans 4:10</t>
+          <t>Romans 3:29</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>How then was it counted to him Was it before or after he had been circumcised It was not after, but before he was circumcised.</t>
+          <t>Or q is God the God of Jews only? Is he not the God of Gentiles also? Yes, of Gentiles also,</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Romans 4:12</t>
+          <t>Romans 3:30</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>and to make him the father of the circumcised who are not merely circumcised but who also walk in the footsteps of the faith that our father Abraham had before he was circumcised. The Promise Realized Through Faith</t>
+          <t>since r God is on e who will justify the circumcised by faith and s the uncircumcised through faith.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Romans 4:13</t>
+          <t>Romans 3:31</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>For the promise to Abraham and his offspring that he would be heir of the world did not come through the law but through the righteousness of faith.</t>
+          <t>Do we then overthrow the law by this faith? By no means! On the contrary, we uphold the law. Abraham Justified by Faith</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Romans 4:15</t>
+          <t>Romans 4:1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>For the law brings wrath, but where there is no law there is no transgression.</t>
+          <t>What then shall we say was gained by Abraham, t our forefather according to the flesh?</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Romans 4:16</t>
+          <t>Romans 4:2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>That is why it depends on faith, in order that the promise may rest on grace and be guaranteed to all his offsprin16 g not only to the adherent of the law but also to the one who shares the faith of Abraham, who is the father of us all,</t>
+          <t>For if Abraham was justified by works, he has something to boast about, but u not before God.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Romans 4:17</t>
+          <t>Romans 4:3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>as it is written, I have made you the father of many nations in the presence of the God in whom he believed, who gives life to the dead and calls into existence the things that do not exist.</t>
+          <t>For what does the Scripture say? v Abraham believed God, and it was counted to him as righteousness.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Romans 4:18</t>
+          <t>Romans 4:4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>In hope he believed against hope, that he should become the father of many nations, as he had been told, So shall your offspring be.</t>
+          <t>Now w to the one who works, his wages are not counted as a gift but as his due.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Romans 4:19</t>
+          <t>Romans 4:5</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>He did not weaken in faith when he considered his own body, which was as good as dead ( since he was about a hundred years old), or when he considered the barrennes16's of Sarah's womb.</t>
+          <t>And to the one who does not work but x believes i n him who justifies the ungodly, his faith is counted as righteousness,</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Romans 4:20</t>
+          <t>Romans 4:6</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>No unbelief made him waver concerning the promise of God, but he grew strong in his faith as he gave glory to God,</t>
+          <t>just as David also speaks of the blessing of the one to whom God counts righteousness apart from works:</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Romans 4:21</t>
+          <t>Romans 4:7</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>fully convinced that God was able to do what he had promised.</t>
+          <t>y Blessed are those whose lawless deeds are forgiven, and whose sins are covered;</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Romans 4:22</t>
+          <t>Romans 4:8</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>That is why his faith was counted to him as righteousness.</t>
+          <t>blessed is the man against whom the Lord will not z count his sin.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Romans 4:23</t>
+          <t>Romans 4:9</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>But the words it was counted to him were not written for his sake alone,</t>
+          <t>Is this blessing then only for a the circumcised, or also for the uncircumcised? b For we say that faith was counted to Abraham as righteousness.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Romans 4:24</t>
+          <t>Romans 4:10</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>but for ours also. It will be counted to us who believe in him who raised from the dead Jesus our Lord,</t>
+          <t>How then was it counted to him? Was it before or after he had been circumcised? It was not after, but before he was circumcised.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Romans 5:2</t>
+          <t>Romans 4:11</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Through him we have also obtained access by fait16 h into this grace in which we stand, and w16 e rejoic16 e in hope of the glory of God. 3</t>
+          <t>c He received the sign of circumcision as a seal of the righteousness that he had by faith while he was still uncircumcised. The purpose was d to make him the father of all who believe without being circumcised, so that righteousness would be counted to them as well,</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Romans 5:3</t>
+          <t>Romans 4:12</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Not only that, but we rejoice in our sufferings, knowing that suffering produces endurance, 4</t>
+          <t>and to make him the father of the circumcised who are not merely circumcised but who also walk in the footsteps of the faith that our father Abraham had before he was circumcised. The Promise Realized Through Faith</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Romans 5:4</t>
+          <t>Romans 4:13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>and endurance produces character, and character produces hope, 5</t>
+          <t>For e the promise to Abraham and his offspring f that he would be heir of the world did not come through the law but through the righteousness of faith.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Romans 5:5</t>
+          <t>Romans 4:14</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>and hope does not put us to shame, because God's love has been poured into our hearts through the Holy Spirit who has been given to us. 6</t>
+          <t>g For if it is the adherents of the law who are to be the heirs, faith is null and the promise is void.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Romans 5:6</t>
+          <t>Romans 4:15</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>For while we were still weak, at the right time Christ died for the ungodly. 7</t>
+          <t>For h the law brings wrath, but i where there is no law j there is no transgression.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Romans 5:7</t>
+          <t>Romans 4:16</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>For one will scarcely die for a righteous perso16 n though perhaps for a good person one would dare even to di e16 8</t>
+          <t>That is why it depends on faith, k in order that the promise may rest on grace and l be guaranteed to all his offsprin g not only to the adherent of the law but also to the one who shares the faith of Abraham, m who is the father of us all,</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Romans 5:8</t>
+          <t>Romans 4:17</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>but God shows his love for us in that while we were still sinners, Christ died for us. 9</t>
+          <t>as it is written, n I have made you the father of many nations in the presence of the God in whom he believed, o who gives life to the dead and calls into existence p the things that do not exist.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Romans 5:9</t>
+          <t>Romans 4:18</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Since, therefore, we have now been justified by his blood, much more shall we be saved by him from the wrath of God.</t>
+          <t>In hope he believed against hope, that he should become the father of many nations, as he had been told, q So shall your offspring be.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Romans 5:10</t>
+          <t>Romans 4:19</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>For if while we were enemies we were reconciled to God by the death of his Son, much more, now that we are reconciled, shall we be saved by his life.</t>
+          <t>He did not weaken in faith when he considered his own body, which was r as good as dead, or when he considered t the barrennes s of Sarah s womb.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Romans 5:11</t>
+          <t>Romans 4:20</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>More than that, we also rejoice in God through our Lord Jesus Christ, through whom we have now received reconciliation. Death in Adam, Life in Christ</t>
+          <t>No unbelief made him waver concerning the promise of God, but he grew strong in his faith as he gave glory to God,</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Romans 5:12</t>
+          <t>Romans 4:21</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Therefore, just as sin came into the world through one man, and death through sin, and so death spread to all me16 n because all sinne16 d16</t>
+          <t>fully convinced that u God was able to do what he had promised.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Romans 5:13</t>
+          <t>Romans 4:22</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>for sin indeed was in the world before the law was given, but sin is not counted where there is no law.</t>
+          <t>That is why his faith was counted to him as righteousness.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Romans 5:14</t>
+          <t>Romans 4:23</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Yet death reigned from Adam to Moses, even over those whose sinning was not like the transgression of Adam, who was a type of the one who was to come.</t>
+          <t>But v the words it was counted to him were not written for his sake alone,</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Romans 5:15</t>
+          <t>Romans 4:24</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>But the free gift is not like the trespass. For if many died through one man's trespass, much more have the grace of God and the free gift by the grace of that one man Jesus Christ abounded for many.</t>
+          <t>but for ours also. It will be counted to us w who believe in x him who raised from the dead Jesus our Lord,</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Romans 5:16</t>
+          <t>Romans 4:25</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>And the free gift is not like the result of that one man's sin. For the judgment following one trespass brought condemnation, but the free gift following many trespasses brought justification.</t>
+          <t>y who was delivered up for our trespasses and raised z for our justification. Peace with God Through Faith</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Romans 5:17</t>
+          <t>Romans 4:26</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>For if, because of one man's trespass, death reigned through that one man, much more will those who receive the abundance of grace and the free gift of righteousness reign in life through the one man Jesus Christ.</t>
+          <t>a Therefore, since we have been justified by faith, b w e have peace with God through our Lord Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Romans 5:18</t>
+          <t>Romans 5:2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Therefore, as one trespas's led to condemnation for all men, so one act of righteousnes16's leads to justification and life for all men.</t>
+          <t>Through him we have also c obtained access by fait h into this grace d in which we stand, and e w e rejoic e in hope of the glory of God.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Romans 5:19</t>
+          <t>Romans 5:3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>For as by the one man's disobedience the many were made sinners, so by the one man's obedience the many will be made righteous.</t>
+          <t>Not only that, but we f rejoice in our sufferings, knowing that suffering g produces endurance,</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Romans 5:20</t>
+          <t>Romans 5:4</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Now the law came in to increase the trespass, but where sin increased, grace abounded all the more,</t>
+          <t>and endurance produces character, and character produces hope,</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Romans 5:21</t>
+          <t>Romans 5:5</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>so that, as sin reigned in death, grace also might reign through righteousness leading to eternal life through Jesus Christ our Lord. Dead to Sin, Alive to God 6</t>
+          <t>and h hope does not put us to shame, because God s love i has been poured into our hearts through the Holy Spirit who has been given to us.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Romans 6:1</t>
+          <t>Romans 5:6</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>What shall we say then Are we to continue in sin that grace may abound 2</t>
+          <t>For j while we were still weak, at the right time k Christ died for the ungodly.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Romans 6:2</t>
+          <t>Romans 5:7</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>By no means! How can we who died to sin still live in it 3</t>
+          <t>For one will scarcely die for a righteous perso n though perhaps for a good person one would dare even to di e</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Romans 6:3</t>
+          <t>Romans 5:8</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Do you not know that all of us who have been baptized into Christ Jesus were baptized into his death 4</t>
+          <t>but l God shows his love for us in that m while we were still sinners, Christ died for us.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Romans 6:4</t>
+          <t>Romans 5:9</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>We were buried therefore with him by baptism into death, in order that, just as Christ was raised from the dead by the glory of the Father, we too might walk in newness of life. 5</t>
+          <t>Since, therefore, n we have now been justified by his blood, much more shall we be saved by him from o the wrath of God.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Romans 6:5</t>
+          <t>Romans 5:10</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>For if we have been united with him in a death like his, we shall certainly be united with him in a resurrection like his. 6</t>
+          <t>For if p while we were enemies q we were reconciled to God by the death of his Son, much more, now that we are reconciled, shall we be saved by r his life.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Romans 6:6</t>
+          <t>Romans 5:11</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>We know that our old sel16 f was crucified with him in order that the body of sin might be brought to nothing, so that we would no long173 er be enslaved to sin. 7</t>
+          <t>More than that, we also rejoice in God through our Lord Jesus Christ, through whom we have now received s reconciliation. Death in Adam, Life in Christ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Romans 6:7</t>
+          <t>Romans 5:12</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>For one who has died has been set fre e from sin. 8</t>
+          <t>Therefore, just as t sin came into the world through one man, and u death through sin, and v so death spread to all me n because w all sinne d</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Romans 6:8</t>
+          <t>Romans 5:13</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Now if we have died with Christ, we believe that we will also live with him. 9</t>
+          <t>for sin indeed was in the world before the law was given, but x sin is not counted where there is no law.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Romans 6:9</t>
+          <t>Romans 5:14</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>We know that Christ, being raised from the dead, will never die again; death no long173 er has dominion over him.</t>
+          <t>Yet death reigned from Adam to Moses, even over those whose sinning was not y like the transgression of Adam, z who was a type of a the one who was to come.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Romans 6:10</t>
+          <t>Romans 5:15</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>For the death he died he died to sin, once for all, but the life he lives he lives to God.</t>
+          <t>But the free gift is not like the trespass. For if many died through one man s trespass, much more have the grace of God and the free gift by the grace of that one man Jesus Christ abounded for b many.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Romans 6:11</t>
+          <t>Romans 5:16</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>So you also must consider yourselves dead to sin and alive to God in Christ Jesus.</t>
+          <t>And the free gift is not like the result of that one man s sin. For c the judgment following one trespass brought condemnation, but the free gift following many trespasses brought d justification.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Romans 6:12</t>
+          <t>Romans 5:17</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Let not sin therefore reign in your mortal body, to make you obey its passions.</t>
+          <t>For if, because of one man s trespass, death reigned through that one man, much more will those who receive the abundance of grace and the free gift of righteousness e reign in life through the one man Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Romans 6:14</t>
+          <t>Romans 5:18</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>For sin will have no dominion over you, since you are not under law but under grace. Slaves to Righteousness</t>
+          <t>Therefore, as one trespas s led to condemnation for all men, so one act of righteousnes s leads to justification and life for f all men.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Romans 6:15</t>
+          <t>Romans 5:19</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>What then Are we to sin because we are not under law but under grace By no means!</t>
+          <t>For as by the one man s g disobedience the many were made sinners, so by the one man s h obedience the many will be made righteous.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Romans 6:16</t>
+          <t>Romans 5:20</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Do you not know that if you pre173 sent yourselves to anyone as obedient slaves, you are slaves of the one whom you obey, either of sin, which leads to death, or of obedience, which leads to righteousness</t>
+          <t>Now i the law came in to increase the trespass, but where sin increased, j grace abounded all the more,</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Romans 6:17</t>
+          <t>Romans 5:21</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>But thanks be to God, that you who were once slaves of sin have become obedient from the heart to the standard of teaching to which you were committed,</t>
+          <t>so that, k as sin reigned in death, l grace also might reign through righteousness leading to eternal life through Jesus Christ our Lord. Dead to Sin, Alive to God</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Romans 6:18</t>
+          <t>Romans 6:1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>and, having been set free from sin, have become slaves of righteousness.</t>
+          <t>What shall we say then? m Are we to continue in sin that grace may abound?</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Romans 6:22</t>
+          <t>Romans 6:2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>But now that you have been set free from sin and have become slaves of God, the fruit you get leads to sanctification and its end, eternal life.</t>
+          <t>By no means! How can n we who died to sin still live in it?</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Romans 7:1</t>
+          <t>Romans 6:3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Or do you not know, brother16's for I am speaking to those who know the la16 w that the law is binding on a person only as long as he lives 2</t>
+          <t>Do you not know that all of us o who have been baptized p into Christ Jesus were baptized into his death?</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Romans 7:2</t>
+          <t>Romans 6:4</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>For a married woman is bound by law to her husband while he lives, but if her husband dies she is released from the law of marriage. 3</t>
+          <t>We were q buried therefore with him by baptism into death, in order that, just as r Christ was raised from the dead by s the glory of the Father, we too might walk in t newness of life.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Romans 7:3</t>
+          <t>Romans 6:5</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Accordingly, she will be called an adulteress if she lives with another man while her husband is alive. But if her husband dies, she is free from that law, and if she marries another man she is not an adulteress. 4</t>
+          <t>For u if we have been united with him in v a death like his, we shall certainly be united with him in a resurrection like his.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Romans 7:4</t>
+          <t>Romans 6:6</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Likewise, my brothers, you also have died to the law through the body of Christ, so that you may belong to another, to him who has been raised from the dead, in order that we may bear fruit for God. 5</t>
+          <t>We know that w our old sel f</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Romans 7:5</t>
+          <t>Romans 6:7</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>For while we were living in the flesh, our sinful passions, aroused by the law, were at work in our members to bear fruit for death. 6</t>
+          <t>x was crucified with him in order that y the body of sin might be brought to nothing, so that we would no long?er be enslaved to sin.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Romans 7:6</t>
+          <t>Romans 6:7</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>But now we are released from the law, having died to that which held us captive, so that we serve in the new way of the Spirit and not in the old way of the written code. The Law and Sin 7</t>
+          <t>For z one who has died a has been set fre e from sin.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Romans 7:7</t>
+          <t>Romans 6:8</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>What then shall we say That the law is sin By no means! Yet if it had not been for the law, I would not have known sin. For I would not have known what it is to covet if the law had not said, You shall not covet. 8</t>
+          <t>Now b if we have died with Christ, we believe that we will also live with him.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Romans 7:8</t>
+          <t>Romans 6:9</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>But sin, seizing an opportunity through the commandment, produced in me all kinds of covetousness. For apart from the law, sin lies dead. 9</t>
+          <t>We know that c Christ, being raised from the dead, will never die again; d death no long?er has dominion over him.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Romans 7:9</t>
+          <t>Romans 6:10</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>I was once alive apart from the law, but when the commandment came, sin came alive and I died.</t>
+          <t>For the death he died he died to sin, e once for all, but the life he lives he lives to God.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Romans 7:10</t>
+          <t>Romans 6:11</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>The very commandment that promised life proved to be death to me.</t>
+          <t>So you also must consider yourselves f dead to sin and alive to God in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Romans 7:11</t>
+          <t>Romans 6:12</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>For sin, seizing an opportunity through the commandment, deceived me and through it killed me.</t>
+          <t>Let not g sin therefore reign in your mortal body, to make you obey its passions.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Romans 7:12</t>
+          <t>Romans 6:13</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>So the law is holy, and the commandment is holy and righteous and good.</t>
+          <t>h Do not pre?sent your members to sin as instruments for unrighteousness, but i pre?sent yourselves to God as those who have been brought from death to life, and your members to God as instruments for righteousness.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Romans 7:13</t>
+          <t>Romans 6:14</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Did that which is good, then, bring death to me By no means! It was sin, producing death in me through what is good, in order that sin might be shown to be sin, and through the commandment might become sinful beyond measure.</t>
+          <t>For j sin k will have no dominion over you, since you are not under law but under grace. Slaves to Righteousness</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Romans 7:14</t>
+          <t>Romans 6:15</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>For we know that the law is spiritual, but I am of the flesh, sold under sin.</t>
+          <t>What then? l Are we to sin m because we are not under law but under grace? By no means!</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Romans 7:15</t>
+          <t>Romans 6:16</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>For I do not understand my own actions. For I o not do what I want, but I do the very thing I hate.</t>
+          <t>Do you not know that if you pre?sent yourselves n to anyone as obedient slaves, you are slaves of the one whom you obey, either of sin, which leads to death, or of obedience, which leads to righteousness?</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Romans 7:16</t>
+          <t>Romans 6:17</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Now if I do what I do not want, I gree with the law, that it is good.</t>
+          <t>But o thanks be to God, that you who were once slaves of sin have become obedient from the heart to the p standard of teaching to which you were committed,</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Romans 7:17</t>
+          <t>Romans 6:18</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>So now it is no long173 er I who do it, but sin that dwells within me.</t>
+          <t>and, q having been set free from sin, r have become slaves of righteousness.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Romans 7:18</t>
+          <t>Romans 6:19</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>For I know that nothing good dwells in me, that is, in my flesh. For I have the desire to do what is right, but not the ability to carry it out.</t>
+          <t>s I am speaking in human terms, because of your natural limitations. For t just as you once presented your members as slaves to impurity and to lawlessness leading to more lawlessness, so now pre?sent your members u as slaves to righteousness leading to sanctification.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Romans 7:20</t>
+          <t>Romans 6:20</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Now if I do what I do not want, it is no long173 er I who do it, but sin that dwells within me.</t>
+          <t>v For when you were slaves of sin, you were free in regard to righteousness.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Romans 7:21</t>
+          <t>Romans 6:21</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>So I find it to be a law that when I want to do right, evil lies close at hand.</t>
+          <t>w But what fruit were you getting at that time from the things x of which you are now ashamed? y For the end of those things is death.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Romans 7:22</t>
+          <t>Romans 6:22</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>For I light in the law of God, in my inner being,</t>
+          <t>But now that you z have been set free from sin and a have become slaves of God, b the fruit you get leads to sanctification and c its end, eternal life.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Romans 7:23</t>
+          <t>Romans 6:23</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>but I see in my members another law waging war against the law of my mind and making me captive to the law of sin that dwells in my members.</t>
+          <t>d For the wages of sin is death, but the free gift of God is eternal life in Christ Jesus our Lord. Released from the Law</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Romans 7:24</t>
+          <t>Romans 7:1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Wretched man that I am! Who will deliver me from this body of death</t>
+          <t>Or do you not know, brother s for I am speaking to those who know the la w that the law is binding on a person only as long as he lives?</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Romans 7:25</t>
+          <t>Romans 7:2</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Thanks be to God through Jesus Christ our Lord! So then, I myself serve the law of God with my mind, but with my flesh I serve the law of sin. Life in the Spirit 8</t>
+          <t>For e a married woman is bound by law to her husband while he lives, but if her husband dies she is released from the law of marriage.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Romans 8:1</t>
+          <t>Romans 7:3</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>There is therefore now no condemnation for those who are in Christ Jesus. 2</t>
+          <t>Accordingly, f she will be called an adulteress if she lives with another man while her husband is alive. But if her husband dies, she is free from that law, and if she marries another man she is not an adulteress.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Romans 8:2</t>
+          <t>Romans 7:4</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>For the law of the Spirit of life has set yo16 u free in Christ Jesus from the law of sin and death. 3</t>
+          <t>Likewise, my brothers, g you also have died h to the law i through the body of Christ, so that you may belong to another, to him who has been raised from the dead, j in order that we may bear fruit for God.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Romans 8:3</t>
+          <t>Romans 7:5</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>For God has done what the law, weakened by the flesh, could not do. By sending his own Son in the likeness of sinful flesh and for sin, he condemned sin in the flesh, 4</t>
+          <t>For while we were living in the flesh, our sinful passions, aroused by the law, were at work k in our members l to bear fruit for death.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Romans 8:4</t>
+          <t>Romans 7:6</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>in order that the righteous requirement of the law might be fulfilled in us, who walk not according to the flesh but according to the Spirit. 5</t>
+          <t>But now we are released from the law, having died to that which held us captive, so that we serve in the m new way of n the Spirit and not in the old way of the written code. The Law and Sin</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Romans 8:5</t>
+          <t>Romans 7:7</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>For those who live according to the flesh set their minds on the things of the flesh, but those who live according to the Spirit set their minds on the things of the Spirit. 6</t>
+          <t>What then shall we say? That the law is sin? By no means! Yet if it had not been for the law, o I would not have known sin. For I would not have known what it is to covet if p the law had not said, You shall not covet.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Romans 8:6</t>
+          <t>Romans 7:8</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>For to set the mind on the flesh is death, but to set the mind on the Spirit is life and peace. 7</t>
+          <t>But sin, q seizing an opportunity through the commandment, produced in me all kinds of covetousness. r For apart from the law, sin lies dead.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Romans 8:7</t>
+          <t>Romans 7:9</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>For the mind that is set on the flesh is hostile to God, for it does not submit to God's law; indeed, it cannot. 8</t>
+          <t>I was once alive apart from the law, but when the commandment came, sin came alive and I died.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Romans 8:8</t>
+          <t>Romans 7:10</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Those who are in the flesh cannot please God. 9</t>
+          <t>The very commandment s that promised life proved to be death to me.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Romans 8:9</t>
+          <t>Romans 7:11</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>You, however, are not in the flesh but in the Spirit, if in fact the Spirit of God dwells in you. Anyone who does not have the Spirit of Christ does not belong to him.</t>
+          <t>For sin, t seizing an opportunity through the commandment, u deceived me and through it killed me.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Romans 8:10</t>
+          <t>Romans 7:12</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>But if Christ is in you, although the body is dead because of sin, the Spirit is life because of righteousness.</t>
+          <t>So v the law is holy, and the commandment is holy and righteous and good.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Romans 8:11</t>
+          <t>Romans 7:13</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>If the Spirit of him who raised Jesus from the dead dwells in you, he who raised Christ Jesu's from the dead will also give life to your mortal bodies through his Spirit who dwells in you. Heirs with Christ</t>
+          <t>Did that which is good, then, bring death to me? By no means! It was sin, producing death in me through what is good, in order that sin might be shown to be sin, and through the commandment might become sinful beyond measure.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Romans 8:12</t>
+          <t>Romans 7:14</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>So then, brothers, we are debtors, not to the flesh, to live according to the flesh.</t>
+          <t>For we know that the law is spiritual, but I am of the flesh, w sold under sin.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Romans 8:13</t>
+          <t>Romans 7:15</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>For if you live according to the flesh you will die, but if by the Spirit you put to death the deeds of the body, you will live.</t>
+          <t>For I do not understand my own actions. For x I do not do what I want, but I do the very thing I hate.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Romans 8:14</t>
+          <t>Romans 7:16</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>For all who are led by the Spirit of God are son16's of God.</t>
+          <t>Now if I do what I do not want, I agree with y the law, that it is good.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Romans 8:15</t>
+          <t>Romans 7:17</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>For you did not receive the spirit of slavery to fall back into fear, but you have received the Spirit of adoption as sons, by whom we cry, Abba! Father!</t>
+          <t>So now z it is no long?er I who do it, but sin that dwells within me.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Romans 8:17</t>
+          <t>Romans 7:18</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>and if children, then heir16's heirs of God and fellow heirs with Christ, provided we suffer with him in order that we may also be glorified with him. Future Glory</t>
+          <t>For I know that nothing good dwells a in me, that is, in my flesh. For I have the desire to do what is right, but not the ability to carry it out.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Romans 8:18</t>
+          <t>Romans 7:19</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>For I consider that the sufferings of this pres173 ent time are not worth comparing with the glory that is to be revealed to us.</t>
+          <t>b For I do not do the good I want, but the evil I do not want is what I keep on doing.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Romans 8:19</t>
+          <t>Romans 7:20</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>For the creation waits with eager longing for the revealing of the sons of God.</t>
+          <t>Now if I do what I do not want, c it is no long?er I who do it, but sin that dwells within me.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Romans 8:20</t>
+          <t>Romans 7:21</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>For the creation was subjected to futility, not willingly, but because of him who subjected it, in hope</t>
+          <t>So I find it to be a law that when I want to do right, evil lies close at hand.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Romans 8:21</t>
+          <t>Romans 7:22</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>that the creation itself will be set free from its bondage to corruption and obtain the freedom of the glory of the children of God.</t>
+          <t>For d I delight in the law of God, e in my inner being,</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Romans 8:22</t>
+          <t>Romans 7:23</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>For we know that the whole creation has been groaning together in the pains of childbirth until now.</t>
+          <t>but I see in my members f another law waging war against the law of my mind and making me captive to the law of sin that dwells in my members.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Romans 8:23</t>
+          <t>Romans 7:24</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>And not only the creation, but we ourselves, who have the firstfruits of the Spirit, groan inwardly as we wait eagerly for adoption as sons, the redemption of our bodies.</t>
+          <t>Wretched man that I am! Who will deliver me from g this body of death?</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Romans 8:24</t>
+          <t>Romans 7:25</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>For in this hope we were saved. Now hope that is seen is not hope. For who hopes for what he sees</t>
+          <t>Thanks be to God through Jesus Christ our Lord! So then, I myself serve the law of God with my mind, but with my flesh I serve the law of sin. Life in the Spirit</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Romans 8:25</t>
+          <t>Romans 8:1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>But if we hope for what we do not see, we wait for it with patience.</t>
+          <t>There is therefore now no condemnation for those who are in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Romans 8:26</t>
+          <t>Romans 8:2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Likewise the Spirit helps us in our weakness. For we do not know what to pray for as we ought, but the Spirit himself intercedes for us with groanings too deep for words.</t>
+          <t>For the law of h the Spirit of life i has set yo u free in Christ Jesus from the law of sin and death.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Romans 8:27</t>
+          <t>Romans 8:3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>And he who searches hearts knows what is the mind of the Spirit, becaus16 e the Spirit intercedes for the saints according to the will of God.</t>
+          <t>For j God has done what the law, k weakened by the flesh, l could not do. m By sending his own Son n in the likeness of sinful flesh and o for sin, he condemned sin in the flesh,</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Romans 8:28</t>
+          <t>Romans 8:4</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>And we know that for those who love God all things work together for good, for those who are called according to his purpose.</t>
+          <t>in order that p the righteous requirement of the law might be fulfilled in us, q who walk not according to the flesh but according to the Spirit.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Romans 8:29</t>
+          <t>Romans 8:5</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>For those whom he foreknew he also predestined to be conformed to the image of his Son, in order that he might be the firstborn among many brothers.</t>
+          <t>For r those who live according to the flesh set their minds on s the things of the flesh, but those who live according to the Spirit set their minds on t the things of the Spirit.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Romans 8:30</t>
+          <t>Romans 8:6</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>And those whom he predestined he also called, and those whom he called he also justified, and those whom he justified he also glorified. God's Everlasting Love</t>
+          <t>For to set u the mind on the flesh is death, but to set the mind on the Spirit is life and peace.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Romans 8:31</t>
+          <t>Romans 8:7</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>What then shall we say to these things If God is for us, who can b16 e against us</t>
+          <t>For the mind that is set on the flesh is v hostile to God, for it does not submit to God s law; w indeed, it cannot.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Romans 8:33</t>
+          <t>Romans 8:8</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Who shall bring any charge against God's elect It is God who justifies.</t>
+          <t>Those who are in the flesh cannot please God.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Romans 8:35</t>
+          <t>Romans 8:9</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Who shall separate us from the love of Christ Shall tribulation, or distress, or persecution, or famine, or nakedness, or danger, or sword</t>
+          <t>You, however, are not in the flesh but in the Spirit, if in fact x the Spirit of God dwells in you. y Anyone who does not have z the Spirit of Christ does not belong to him.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Romans 8:36</t>
+          <t>Romans 8:10</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>As it is written, - For your sake we are being killed all the day long; - we are regarded as sheep to be slaughtered.</t>
+          <t>But if Christ is in you, although the body is dead because of sin, the Spirit is life because of righteousness.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Romans 8:37</t>
+          <t>Romans 8:11</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>No, in all these things we are more than conquerors through him who loved us.</t>
+          <t>If the Spirit of a him who raised Jesus from the dead dwells in you, he who raised Christ Jesu s from the dead will also give life to your mortal bodies b through his Spirit who dwells in you. Heirs with Christ</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Romans 8:38</t>
+          <t>Romans 8:12</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>For I am sure that neither death nor life, nor angels nor rulers, nor things pres173 ent nor things to come, nor powers,</t>
+          <t>So then, brothers, we are debtors, c not to the flesh, to live according to the flesh.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Romans 8:39</t>
+          <t>Romans 8:13</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>nor height nor depth, nor anything else in all creation, will be able to separate us from the love of God in Christ Jesus our Lord. God's Sovereign Choice 9</t>
+          <t>For if you live according to the flesh you will die, but if by the Spirit you d put to death the deeds of the body, you will live.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Romans 9:2</t>
+          <t>Romans 8:14</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>that I have great sorrow and unceasing anguish in my heart. 3</t>
+          <t>For all who are e led by the Spirit of God are f son s of God.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Romans 9:3</t>
+          <t>Romans 8:15</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>For I ould wish that I myself were accursed and cut off from Christ for the sake of my brothers, my kinsmen according to the flesh. 4</t>
+          <t>For g you did not receive h the spirit of slavery to fall back into fear, but you have received the Spirit of i adoption as sons, by whom we cry, j Abba! Father!</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Romans 9:4</t>
+          <t>Romans 8:16</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>They are Israelites, and to them belong the adoption, the glory, the cov173 enants, the giving of the law, the worship, and the promises. 5</t>
+          <t>k The Spirit himself bears witness with our spirit that we are children of God,</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Romans 9:5</t>
+          <t>Romans 8:17</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>To them belong the patriarchs, and from their race, according to the flesh, is the Christ, who is God over all, blessed forever. Amen. 6</t>
+          <t>and if children, then l heir s heirs of God and fellow heirs with Christ, m provided we suffer with him in order that we may also be glorified with him. Future Glory</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Romans 9:6</t>
+          <t>Romans 8:18</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>But it is not as though the word of God has failed. For not all who are descended from Israel belong to Israel, 7</t>
+          <t>For I consider that the sufferings of this pres?ent time n are not worth comparing with the glory that is to be revealed to us.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Romans 9:7</t>
+          <t>Romans 8:19</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>and not all are children of Abraham because they are his offspring, but Through Isaac shall your offspring be named. 8</t>
+          <t>For the creation waits with eager longing for o the revealing of the sons of God.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Romans 9:8</t>
+          <t>Romans 8:20</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>This means that it is not the children of the flesh who are the children of God, but the children of the promise are counted as offspring. 9</t>
+          <t>For the creation p was subjected to futility, not willingly, but q because of him who subjected it, in hope</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Romans 9:9</t>
+          <t>Romans 8:21</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>For this is what the promise said: About this time next year I will return, and Sarah shall have a son.</t>
+          <t>that r the creation itself will be set free from its bondage to corruption and obtain the freedom of the glory of the children of God.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Romans 9:10</t>
+          <t>Romans 8:22</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>And not only so, but also when Rebekah had conceived children by one man, our forefather Isaac,</t>
+          <t>For we know that s the whole creation t has been groaning together in the pains of childbirth until now.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Romans 9:11</t>
+          <t>Romans 8:23</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>though they were not yet born and had done nothing either good or ba d in order that God's purpose of election might continue, not because of works but because of him who call16 s16</t>
+          <t>And not only the creation, but we ourselves, who have u the firstfruits of the Spirit, v groan inwardly as w we wait eagerly for adoption as sons, x the redemption of our bodies.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Romans 9:12</t>
+          <t>Romans 8:24</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>she was told, The older will serve the younger.</t>
+          <t>For y in this hope we were saved. Now z hope that is seen is not hope. For who hopes for what he sees?</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Romans 9:13</t>
+          <t>Romans 8:25</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>As it is written, Jacob I loved, but Esau I hated.</t>
+          <t>But if we hope for what we do not see, we a wait for it with patience.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Romans 9:14</t>
+          <t>Romans 8:26</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>What shall we say then Is there injustice on God's part By no means!</t>
+          <t>Likewise the Spirit helps us in our weakness. For b we do not know what to pray for as we ought, but c the Spirit himself intercedes for us with groanings too deep for words.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Romans 9:15</t>
+          <t>Romans 8:27</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>For he says to Moses, I will have mercy on whom I have mercy, and I will have compassion on whom I have compassion.</t>
+          <t>And d he who searches hearts knows what is e the mind of the Spirit, becaus e the Spirit f intercedes for the saints g according to the will of God.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Romans 9:16</t>
+          <t>Romans 8:28</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>So then it depends not on human will or exertion, but on God, who has mercy.</t>
+          <t>And we know that for those who love God all things work together h for good, for i those who are called according to his purpose.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Romans 9:17</t>
+          <t>Romans 8:29</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>For the Scripture says to Pharaoh, For this very purpose I have raised you up, that I might show my power in you, and that my name might be proclaimed in all the earth.</t>
+          <t>For those whom he j foreknew he also k predestined l to be conformed to the image of his Son, in order that he might be m the firstborn among many brothers.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Romans 9:18</t>
+          <t>Romans 8:30</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>So then he has mercy on whomever he wills, and he hardens whomever he wills.</t>
+          <t>And those whom he predestined he also called, and those whom he called he also n justified, and those whom he justified he also o glorified. God s Everlasting Love</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Romans 9:19</t>
+          <t>Romans 8:31</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>You will say to me then, Why does he still find fault For who can resist his will</t>
+          <t>What then shall we say to these things? p If God is for us, who can b e against us?</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Romans 9:20</t>
+          <t>Romans 8:32</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>But who are you, O man, to answer back to God Will what is molded say to its molder, Why have you made me like this</t>
+          <t>q He who did not spare his own Son but r gave him up for us all, how will he not also with him graciously give us all things?</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Romans 9:22</t>
+          <t>Romans 8:33</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>What if God, desiring to show his wrath and to make known his power, has endured with much patience vessels of wrath prepared for destruction,</t>
+          <t>Who shall bring any charge against God s elect? s It is God who justifies.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Romans 9:23</t>
+          <t>Romans 8:34</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>in order to make known the riches of his glory for vessels of mercy, which he has prepared beforehand for glor16 y16</t>
+          <t>t Who is to condemn? Christ Jesus is the one who die d more than that, who was raise d u who is at the right hand of God, v who indeed is interceding for us.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Romans 9:24</t>
+          <t>Romans 8:35</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>even us whom he has called, not from the Jews only but also from the Gentiles</t>
+          <t>Who shall separate us from the love of Christ? Shall tribulation, or distress, or persecution, or famine, or nakedness, or danger, or sword?</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Romans 9:25</t>
+          <t>Romans 8:36</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>As indeed he says in Hosea, - Those who were not my people I will call my people, - and her who was not beloved I will call beloved. - - -</t>
+          <t>As it is written, w For your sake x we are being killed all the day long; we are regarded as sheep to be slaughtered.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Romans 9:27</t>
+          <t>Romans 8:37</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>And Isaiah cries out concerning Israel: Though the number of the sons of Israe l be as the sand of the sea, only a remnant of them will be saved,</t>
+          <t>No, in all these things we are more than y conquerors through z him who loved us.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Romans 9:28</t>
+          <t>Romans 8:38</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>for the Lord will carry out his sentence upon the earth fully and without delay.</t>
+          <t>For I am sure that neither death nor life, nor angels nor rulers, nor things pres?ent nor things to come, nor powers,</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Romans 9:29</t>
+          <t>Romans 8:39</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>And as Isaiah predicted, - , If the Lord of hosts had not left us offspring, - we would have been like Sodom - and become like Gomorrah. Israel's Unbelief</t>
+          <t>nor height nor depth, nor anything else in all creation, will be able to separate us from the love of God in Christ Jesus our Lord. God s Sovereign Choice</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Romans 9:30</t>
+          <t>Romans 8:40</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>What shall we say, then That Gentiles who did not pursue righteousness have attained it, that is, a righteousness that is by faith;</t>
+          <t>a I am speaking the truth in Chris t I am not lying; my conscience bears me witness in the Holy Spiri t</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Romans 9:31</t>
+          <t>Romans 9:2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>but that Israel who pursued a law that would lead to righteousnes16's did not succeed in reaching that law.</t>
+          <t>that I have great sorrow and unceasing anguish in my heart.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Romans 9:32</t>
+          <t>Romans 9:3</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Why Because they did not pursue it by faith, but as if it were based on works. They have stumbled over the stumbling stone,</t>
+          <t>For b I could wish that I myself were c accursed and cut off from Christ for the sake of my brothers, my kinsmen d according to the flesh.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Romans 9:33</t>
+          <t>Romans 9:4</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>as it is written, - Behold, I m laying in Zion a stone of stumbling, and a rock of offense; - and whoever believes in him will not be put to shame.</t>
+          <t>They are e Israelites, and to them belong f the adoption, g the glory, h the cov?enants, i the giving of the law, j the worship, and k the promises.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Romans 10:1</t>
+          <t>Romans 9:5</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Brothers, my heart's desire and prayer to God for them is that they may be saved. 2</t>
+          <t>To them belong l the patriarchs, and from their race, according to the flesh, is the Christ, m who is God over all, n blessed forever. Amen.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Romans 10:2</t>
+          <t>Romans 9:6</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>For I bear them witness that they have a zeal for God, but not according to knowledge. 3</t>
+          <t>But it is not as though the word of God has failed. For not all who are descended from Israel belong to Israel,</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Romans 10:3</t>
+          <t>Romans 9:7</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>For, being ignorant of the righteousness of God, and seeking to establish their own, they did not submit to God's righteousness. 4</t>
+          <t>and not all are children of Abraham o because they are his offspring, but p Through Isaac shall your offspring be named.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Romans 10:4</t>
+          <t>Romans 9:8</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>For Christ is the end of the law for righteousness to everyone who believes. The Message of Salvation to All 5</t>
+          <t>This means that it is not the children of the flesh who are the children of God, but q the children of the promise are counted as offspring.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Romans 10:5</t>
+          <t>Romans 9:9</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>For Moses writes about the righteousness that is based on the law, that the person who does the commandments shall live by them. 6</t>
+          <t>For this is what the promise said: r About this time next year I will return, and Sarah shall have a son.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Romans 10:6</t>
+          <t>Romans 9:10</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>But the righteousness based on faith says, Do not say in your heart, Who will ascend into heaven (that is, to bring Christ down) 7</t>
+          <t>And not only so, but s also when Rebekah had conceived children by one man, our forefather Isaac,</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Romans 10:7</t>
+          <t>Romans 9:11</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>or Who will descend into the abyss (that is, to bring Christ up from the dead). 8</t>
+          <t>though they were not yet born and had done nothing either good or ba d in order that God s purpose of election might continue, not because of works but because of t him who call s</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Romans 10:8</t>
+          <t>Romans 9:12</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>But what does it say The word is near you, in your mouth and in your heart (that is, the word of faith that we proclaim); 9</t>
+          <t>she was told, u The older will serve the younger.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Romans 10:9</t>
+          <t>Romans 9:13</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>because, if you confess with your mouth that Jesus is Lord and believe in your heart that God raised him from the dead, you will be saved.</t>
+          <t>As it is written, v Jacob I loved, but Esau I hated.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Romans 10:10</t>
+          <t>Romans 9:14</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>For with the heart one believes and is justified, and with the mouth one confesses and is saved.</t>
+          <t>What shall we say then? w Is there injustice on God s part? By no means!</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Romans 10:11</t>
+          <t>Romans 9:15</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>For the Scripture says, Everyone who believes in him will not be put to shame.</t>
+          <t>For he says to Moses, x I will have mercy on whom I have mercy, and I will have compassion on whom I have compassion.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Romans 10:13</t>
+          <t>Romans 9:16</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>For everyone who calls on the name of the Lord will be saved.</t>
+          <t>So then it depends not on human will or exertion, but on God, who has mercy.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Romans 10:14</t>
+          <t>Romans 9:17</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>How then will they call on him in whom they have not believed And how are they to believe in him of whom they have never heard And how are they to hear without someone preaching</t>
+          <t>For the Scripture says to Pharaoh, y For this very purpose I have raised you up, that I might show my power in you, and that my name might be proclaimed in all the earth.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Romans 10:15</t>
+          <t>Romans 9:18</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>And how are they to preach unless they are sent As it is written, How beautiful are the feet of those who preach the good news!</t>
+          <t>So then he has mercy on whomever he wills, and he hardens whomever he wills.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Romans 10:16</t>
+          <t>Romans 9:19</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>But they have not all obeyed the gospel. For Isaiah says, Lord, who has believed what he has heard from us</t>
+          <t>You will say to me then, Why does he still find fault? For z who can resist his will?</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Romans 10:17</t>
+          <t>Romans 9:20</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>So faith comes from hearing, and hearing through the word of Christ.</t>
+          <t>But who are you, O man, a to answer back to God? b Will what is molded say to its molder, Why have you made me like this?</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Romans 10:18</t>
+          <t>Romans 9:21</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>But I ask, have they not heard Indeed they have, for - Their voice has gone out to all the earth, - and their words to the ends of the world.</t>
+          <t>c Has the potter no right over the clay, to make out of the same lump d one vessel for honorable use and another for dishonorable use?</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Romans 10:19</t>
+          <t>Romans 9:22</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>But I ask, did Israel not understand First Moses says, - I will make you jealous of those who are not a nation; - with a foolish nation I will make you angry.</t>
+          <t>What if God, desiring to show his wrath and to make known his power, has endured with much patience e vessels of wrath f prepared for destruction,</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Romans 10:20</t>
+          <t>Romans 9:23</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Then Isaiah is so bold as to say, - I have been found by those who did not seek me; - I have shown myself to those who did not ask for me.</t>
+          <t>in order to make known g the riches of his glory for vessels of mercy, which he h has prepared beforehand for glor y</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Romans 10:21</t>
+          <t>Romans 9:24</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>But of Israel he says, All day long I have held out my hands to a disobedient and contrary people. The Remnant of Israel</t>
+          <t>even us whom he i has called, j not from the Jews only but also from the Gentiles?</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Romans 11:1</t>
+          <t>Romans 9:25</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>I sk, then, has God rejected his people By no means! For I myself am an Israelite, a descendant of Abraham, a member of the tribe of Benjamin. 2</t>
+          <t>As indeed he says in Hosea, k Those who were not my people I will call my people, and her who was not beloved I will call beloved.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Romans 11:4</t>
+          <t>Romans 9:26</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>But what is God's reply to him I have kept for myself seven thousand men who have not bowed the knee to Baal. 5</t>
+          <t>-1:26-1 l -1 -1 -1 And in the very place where it was said to them, You are not my people, there they will be called m sons of the living God.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Romans 11:5</t>
+          <t>Romans 9:27</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>So too at the pres173 ent time there is a remnant, chosen by grace. 6</t>
+          <t>And Isaiah cries out concerning Israel: n Though the number of the sons of Israe l be as the sand of the sea, o only a remnant of them will be saved,</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Romans 11:7</t>
+          <t>Romans 9:28</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>What then Israel failed to obtain what it was seeking. The elect obtained it, but the rest were hardened, 8</t>
+          <t>for the Lord will carry out his sentence upon the earth fully and without delay.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Romans 11:8</t>
+          <t>Romans 9:29</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>as it is written, - God gave them a spirit of stupor, - eyes that would not see - and ears that would not hear, - down to this very day. 9</t>
+          <t>And as Isaiah predicted, p, q If the Lord of hosts had not left us offspring, r we would have been like Sodom and become like Gomorrah. Israel s Unbelief</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Romans 11:9</t>
+          <t>Romans 9:30</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>And David says, - Let their table become a snare and a trap, - a stumbling block and a retribution for them; -</t>
+          <t>What shall we say, then? s That Gentiles who did not pursue righteousness have attained it, that is, t a righteousness that is by faith;</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Romans 11:10</t>
+          <t>Romans 9:31</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>let their eyes be darkened so that they cannot see, - and bend their backs forever. Gentiles Grafted In</t>
+          <t>but that Israel u who pursued a law that would lead to righteousnes s</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Romans 11:11</t>
+          <t>Romans 9:32</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>So I ask, did they stumble in order that they might fall By no means! Rather, through their trespass salvation has come to the Gentiles, so as to make Israel jealous.</t>
+          <t>v did not succeed in reaching that law.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Romans 11:12</t>
+          <t>Romans 9:32</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Now if their trespass means riches for the world, and if their failure means riches for the Gentiles, how much more will their full inclusio n mean!</t>
+          <t>Why? Because they did not pursue it by faith, but as if it were based on works. They have stumbled over the w stumbling stone,</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Romans 11:13</t>
+          <t>Romans 9:33</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Now I am speaking to you Gentiles. Inasmuch then as I m an apostle to the Gentiles, I magnify my ministry</t>
+          <t>as it is written, x Behold, I am laying in Zion y a stone of stumbling, and a rock of offense; z and whoever believes in him will not be a put to shame.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Romans 11:14</t>
+          <t>Romans 10:1</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>in order somehow to make my fellow Jews jealous, and thus save some of them.</t>
+          <t>Brothers, my heart s desire and prayer to God for them is that they may be saved.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Romans 11:15</t>
+          <t>Romans 10:2</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>For if their rejection means the reconciliation of the world, what will their acceptance mean but life from the dead</t>
+          <t>For I bear them witness that b they have a zeal for God, c but not according to knowledge.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Romans 11:17</t>
+          <t>Romans 10:3</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>But if some of the branches were broken off, and you, although a wild olive shoot, were grafted in among the others and now share in the nourishing roo t of the olive tree,</t>
+          <t>For, being ignorant of d the righteousness of God, and seeking to establish their own, they did not submit to God s righteousness.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Romans 11:18</t>
+          <t>Romans 10:4</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>do not be arrogant toward the branches. If you are, remember it is not you who support the root, but the root that supports you.</t>
+          <t>For e Christ is the end of the law for righteousness to everyone who believes. The Message of Salvation to All</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Romans 11:19</t>
+          <t>Romans 10:5</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Then you will say, Branches were broken off so that I might be grafted in.</t>
+          <t>For f Moses writes about the righteousness that is based on the law, that g the person who does the commandments shall live by them.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Romans 11:20</t>
+          <t>Romans 10:6</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>That is true. They were broken off because of their unbelief, but you stand fast through faith. So do not become proud, but fear.</t>
+          <t>But h the righteousness based on faith says, i Do not say in your heart, Who will ascend into heaven?</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Romans 11:21</t>
+          <t>Romans 10:7</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>For if God did not spare the natural branches, neither will he spare you.</t>
+          <t>or Who will descend into the j abyss?.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Romans 11:22</t>
+          <t>Romans 10:8</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Note then the kindness and the severity of God: severity toward those who have fallen, but God's kindness to you, provided you continue in his kindness. Otherwise you too will be cut off.</t>
+          <t>But what does it say? l The word is near you, in your mouth and in your heart;</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Romans 11:23</t>
+          <t>Romans 10:9</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>And even they, if they do not continue in their unbelief, will be grafted in, for God has the power to graft them in again.</t>
+          <t>because, if m you confess with your mouth that Jesus is Lord and n believe in your heart o that God raised him from the dead, you will be saved.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Romans 11:24</t>
+          <t>Romans 10:10</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>For if you were cut from what is by nature a wild olive tree, and grafted, contrary to nature, into a cultivated olive tree, how much more will these, the natural branches, be grafted back into their own olive tree. The Mystery of Israel's Salvation</t>
+          <t>For with the heart one believes and is justified, and with the mouth one confesses and is saved.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Romans 11:26</t>
+          <t>Romans 10:11</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>And in this way all Israel will be saved, as it is written, - The Deliverer will come from Zion, - he will banish ungodliness from Jacob ; -</t>
+          <t>For the Scripture says, p Everyone who believes in him will not be put to shame.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Romans 11:27</t>
+          <t>Romans 10:12</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>and this will be my covenant with them - when I take away their sins.</t>
+          <t>q For there is no distinction between Jew and Greek; r for the same Lord is Lord of all, s bestowing his riches on all who call on him.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Romans 11:28</t>
+          <t>Romans 10:13</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>As regards the gospel, they are enemies for your sake. But as regards election, they are beloved for the sake of their forefathers.</t>
+          <t>For t everyone who calls on the name of the Lord will be saved.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Romans 11:29</t>
+          <t>Romans 10:14</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>For the gifts and the calling of God are irrevocable.</t>
+          <t>How then will they call on him in whom they have not believed? And how are they to believe in him u of whom they have never heard? And how are they to hear v without someone preaching?</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Romans 11:30</t>
+          <t>Romans 10:15</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>For just as you were at one time disobedient to God but now have received mercy because of their disobedience,</t>
+          <t>And how are they to preach unless they are sent? As it is written, w How beautiful are the feet of those who preach the good news!</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Romans 11:31</t>
+          <t>Romans 10:16</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>so they too have now been disobedient in order that by the mercy shown to you they also may no w receive mercy.</t>
+          <t>But x they have not all obeyed the gospel. For Isaiah says, y Lord, who has believed what he has heard from us?</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Romans 11:32</t>
+          <t>Romans 10:17</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>For God has consigned all to disobedience, that he may have mercy on all.</t>
+          <t>So z faith comes from hearing, and hearing through the word of Christ.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Romans 11:33</t>
+          <t>Romans 10:18</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Oh, the depth of the riches and wisdom and knowledge of God! How unsearchable are his judgments and how inscrutable his ways! -</t>
+          <t>But I ask, have they not heard? Indeed they have, for a Their voice has gone out b to all the earth, and their words to the ends of the world.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Romans 11:34</t>
+          <t>Romans 10:19</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>For who has known the mind of the Lord, - or who has been his counselor -</t>
+          <t>But I ask, did Israel not understand? First Moses says, c I will d make you jealous of those who are not a nation; with a e foolish nation I will make you angry.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Romans 11:35</t>
+          <t>Romans 10:20</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Or who has given a gift to him - that he might be repaid</t>
+          <t>Then Isaiah is so bold as to say, f I have been found by those who did not seek me; I have shown myself to those who did not ask for me.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Romans 11:36</t>
+          <t>Romans 10:21</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>For from him and through him and to him are all things. To him be glory forever. Amen. A Living Sacrifice</t>
+          <t>But of Israel he says, g All day long I have held out my hands to a disobedient and contrary people. The Remnant of Israel</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Romans 12:3</t>
+          <t>Romans 11:1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>For by the grace given to me I say to everyone among you not to think of himself more highly than he ought to think, but to think with sober judgment, each according to the measure of faith that God has assigned. 4</t>
+          <t>I ask, then, h has God rejected his people? By no means! For i I myself am an Israelite, a descendant of Abraham, a member of the tribe of Benjamin.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Romans 12:4</t>
+          <t>Romans 11:2</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>For as in one body we have many members, and the members do not all have the same function, 5</t>
+          <t>j God has not rejected his people whom he k foreknew. Do you not know what the Scripture says of Elijah, how he appeals to God against Israel?</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Romans 12:5</t>
+          <t>Romans 11:3</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>so we, though many, are one body in Christ, and individually members one of another. 6</t>
+          <t>l Lord, they have killed your prophets, they have demolished your altars, and I alone am left, and they seek my life.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Romans 12:7</t>
+          <t>Romans 11:4</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>if service, in our serving; the one who teaches, in his teaching; 8</t>
+          <t>But what is God s reply to him? m I have kept for myself seven thousand men who have not bowed the knee to Baal.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Romans 12:8</t>
+          <t>Romans 11:5</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>the one who exhorts, in his exhortation; the one who contributes, in generosity; the one who leads, with zeal; the one who does acts of mercy, with cheerfulness. Marks of the True Christian 9</t>
+          <t>So too at the pres?ent time there is n a remnant, chosen by grace.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Romans 12:11</t>
+          <t>Romans 11:6</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Do not be slothful in zeal, be fervent in spirit, serve the Lord.</t>
+          <t>o But if it is by grace, it is no long?er on the basis of works; otherwise grace would no long?er be grace.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Romans 12:18</t>
+          <t>Romans 11:7</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>If possible, so far as it depends on you, live peaceably with all.</t>
+          <t>What then? p Israel failed to obtain what it was seeking. The elect obtained it, but the rest q were hardened,</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Romans 12:19</t>
+          <t>Romans 11:8</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Beloved, never avenge yourselves, but leave i16 t 1 to the wrath of God, for it is written, Vengeance is mine, I will repay, says the Lord.</t>
+          <t>as it is written, r God gave them a spirit of stupor, s eyes that would not see and ears that would not hear, down to this very day.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Romans 12:20</t>
+          <t>Romans 11:9</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>To the contrary, if your enemy is hungry, feed him; if he is thirsty, give him something to drink; for by so doing you will heap burning coals on his head.</t>
+          <t>And David says, t Let their table become a snare and a trap, a stumbling block and a retribution for them;</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Romans 12:21</t>
+          <t>Romans 11:10</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Do not be overcome by evil, but overcome evil with good. Submission to the Authorities</t>
+          <t>let their eyes be darkened so that they cannot see, and bend their backs forever. Gentiles Grafted In</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Romans 13:1</t>
+          <t>Romans 11:11</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Let every person be subject to the governing authorities. For there is no authority except from God, and those that exist have been instituted by God. 2</t>
+          <t>So I ask, did they stumble in order that they might fall? By no means! Rather, through their trespass u salvation has come to the Gentiles, so as to make Israel jealous.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Romans 13:2</t>
+          <t>Romans 11:12</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Therefore whoever resists the authorities resists what God has appointed, and those who resist will incur judgment. 3</t>
+          <t>Now if their trespass means riches for the world, and if their failure means riches for the Gentiles, how much more will their full inclusio n mean!</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Romans 13:3</t>
+          <t>Romans 11:13</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>For rulers are not a terror to good conduct, but to bad. Would you have no fear of the one who is in authority Then do what is good, and you will receive his approval, 4</t>
+          <t>Now I am speaking to you Gentiles. Inasmuch then as v I am an apostle to the Gentiles, I magnify my ministry</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Romans 13:4</t>
+          <t>Romans 11:14</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>for he is God's servant for your good. But if you do wrong, be afraid, for he does not bear the sword in vain. For he is the servant of God, an avenger who carries out God's wrath on the wrongdoer. 5</t>
+          <t>in order somehow to make my fellow Jews jealous, and w thus save some of them.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Romans 13:5</t>
+          <t>Romans 11:15</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Therefore one must be in subjection, not only to avoid God's wrath but also for the sake of conscience. 6</t>
+          <t>For if their rejection means x the reconciliation of the world, what will their acceptance mean but life from the dead?</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Romans 13:6</t>
+          <t>Romans 11:16</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>For because of this you also pay taxes, for the authorities are ministers of God, attending to this very thing. 7</t>
+          <t>y If the dough offered as firstfruits is holy, so is the whole lump, and if the root is holy, so are the branches.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Romans 13:9</t>
+          <t>Romans 11:17</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>For the commandments, You shall not commit adultery, You shall not murder, You shall not steal, You shall not covet, and any other commandment, are summed up in this word: You shall love your neighbor as yourself.</t>
+          <t>But if z some of the branches were broken off, and you, a although a wild olive shoot, were grafted in among the others and now share in the nourishing roo t of the olive tree,</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Romans 13:10</t>
+          <t>Romans 11:18</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Love does no wrong to a neighbor; therefore love is the fulfilling of the law.</t>
+          <t>do not be arrogant toward the branches. If you are, remember it is not you who support the root, but the root that supports you.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Romans 13:11</t>
+          <t>Romans 11:19</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Besides this you know the time, that the hour has come for you to wake from sleep. For salvation is nearer to us now than when we first believed.</t>
+          <t>Then you will say, Branches were broken off so that I might be grafted in.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Romans 13:14</t>
+          <t>Romans 11:20</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>But put on the Lord Jesus Christ, and make no provision for the flesh, to gratify its desires. Do Not Pass Judgment on One Another</t>
+          <t>That is true. They were broken off because of their unbelief, but you b stand fast through faith. So c do not become proud, but d fear.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Romans 14:1</t>
+          <t>Romans 11:21</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>As for the one who is weak in faith, welcome him, but not to quarrel over opinions. 2</t>
+          <t>For if God did not spare the natural branches, neither will he spare you.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Romans 14:3</t>
+          <t>Romans 11:22</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Let not the one who eats despise the one who abstains, and let not the one who abstains pass judgment on the one who eats, for God has welcomed him. 4</t>
+          <t>Note then the kindness and the severity of God: severity toward those who have fallen, but God s kindness to you, e provided you continue in his kindness. Otherwise f you too will be cut off.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Romans 14:6</t>
+          <t>Romans 11:23</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>The one who observes the day, observes it in honor of the Lord. The one who eats, eats in honor of the Lord, since he gives thanks to God, while the one who abstains, abstains in honor of the Lord and gives thanks to God. 7</t>
+          <t>And g even they, if they do not continue in their unbelief, will be grafted in, for God has the power to graft them in again.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Romans 14:7</t>
+          <t>Romans 11:24</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>For none of us lives to himself, and none of us dies to himself. 8</t>
+          <t>For if you were cut from what is by nature a wild olive tree, and grafted, contrary to nature, into a cultivated olive tree, how much more will these, the natural branches, be grafted back into their own olive tree. The Mystery of Israel s Salvation</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Romans 14:8</t>
+          <t>Romans 11:25</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>For if we live, we live to the Lord, and if we die, we die to the Lord. So then, whether we live or whether we die, we are the Lord's. 9</t>
+          <t>h Lest you be wise in your own sight, I do not want you to be unaware of this mystery, brothers:</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Romans 14:9</t>
+          <t>Romans 11:26</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>For to this end Christ died and lived again, that he might be Lord both of the dead and of the living.</t>
+          <t>i a partial hardening has come upon Israel, j until the fullness of the Gentiles has come in.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Romans 14:10</t>
+          <t>Romans 11:26</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Why do you pass judgment on your brother Or you, why do you despise your brother For we will all stand before the judgment seat of God;</t>
+          <t>And in this way all Israel will be saved, as it is written, k The Deliverer will come l from Zion, he will banish ungodliness from Jacob;</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Romans 14:11</t>
+          <t>Romans 11:27</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>for it is written, - As I live, says the Lord, every knee shall bow to me, - and every tongue shall confes16's to God.</t>
+          <t>and this will be my m covenant with them n when I take away their sins.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Romans 14:12</t>
+          <t>Romans 11:28</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>So then each of us will give an account of himself to God. Do Not Cause Another to Stumble</t>
+          <t>As regards the gospel, they are enemies for your sake. But as regards election, they are o beloved for the sake of their forefathers.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Romans 14:14</t>
+          <t>Romans 11:29</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>I know and am persuaded in the Lord Jesus that nothing is unclean in itself, but it is unclean for anyone who thinks it unclean.</t>
+          <t>For the gifts and p the calling of God are irrevocable.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Romans 14:15</t>
+          <t>Romans 11:30</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>For if your brother is grieved by what you eat, you are no long173 er walking in love. By what you eat, do not destroy the one for whom Christ died.</t>
+          <t>For just as q you were at one time disobedient to God but now have received mercy because of their disobedience,</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Romans 14:18</t>
+          <t>Romans 11:31</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Whoever thus serves Christ is acceptable to God and approved by men.</t>
+          <t>so they too have now been disobedient in order that by the mercy shown to you they also may no w receive mercy.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Romans 14:19</t>
+          <t>Romans 11:32</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>So then let us pursue what makes for peace and for mutual upbuilding.</t>
+          <t>For God r has consigned all to disobedience, that he may have mercy on all.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Romans 14:22</t>
+          <t>Romans 11:33</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>The faith that you have, keep between yourself and God. Blessed is the one who has no reason to pass judgment on himself for what he approves.</t>
+          <t>Oh, the depth of the riches and s wisdom and knowledge of God! t How unsearchable are his judgments and how inscrutable his ways!</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Romans 14:23</t>
+          <t>Romans 11:34</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>But whoever has doubts is condemned if he eats, because the eating is not from faith. For whatever does not proceed from faith is sin. The Example of Christ</t>
+          <t>For u who has known the mind of the Lord, or v who has been his counselor?</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Romans 15:3</t>
+          <t>Romans 11:35</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>For Christ did not please himself, but as it is written, The reproaches of those who reproached you fell on me. 4</t>
+          <t>Or w who has given a gift to him that he might be repaid?</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Romans 15:4</t>
+          <t>Romans 11:36</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>For whatever was written in former days was written for our instruction, that through endurance and through the encouragement of the Scriptures we might have hope. 5</t>
+          <t>For x from him and through him and to him are all things. y To him be glory forever. Amen. A Living Sacrifice</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Romans 15:5</t>
+          <t>Romans 11:37</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>May the God of endurance and encouragement grant you to live in such harmony with one another, in accord with Christ Jesus, 6</t>
+          <t>z I appeal to you therefore, brothers, by the mercies of God, a to pre?sent your bodies b as a living sacrifice, holy and acceptable to God, which is your spiritual worship.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Romans 15:6</t>
+          <t>Romans 11:38</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>that together you may with one voice glorify the God and Father of our Lord Jesus Christ. 7</t>
+          <t>c Do not be conformed to this world, but be transformed by d the renewal of your mind, that by testing you may e discern what is the will of God, what is good and acceptable and perfect. Gifts of Grace</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Romans 15:7</t>
+          <t>Romans 12:3</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Therefore welcome one another as Christ has welcomed you, for the glory of God. Christ the Hope of Jews and Gentiles 8</t>
+          <t>For f by the grace given to me I say to everyone among you g not to think of himself more highly than he ought to think, but to think with sober judgment, h each according to i the measure of faith that God has assigned.</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Romans 15:8</t>
+          <t>Romans 12:4</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>For I tell you that Christ became a servant to the circumcised to show God's truthfulness, in order to confirm the promises given to the patriarchs, 9</t>
+          <t>For j as in one body we have many members, and the members do not all have the same function,</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Romans 15:9</t>
+          <t>Romans 12:5</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>and in order that the Gentiles might glorify God for his mercy. As it is written, - Therefore I will praise you among the Gentiles, - and sing to your name.</t>
+          <t>so we, k though many, l are one body in Christ, and individually m members one of another.</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Romans 15:10</t>
+          <t>Romans 12:6</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>And again it says, - Rejoice, O Gentiles, with his people.</t>
+          <t>n Having gifts that differ according to the grace given to us, let us use them: if o prophecy, p in proportion to our faith;</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Romans 15:11</t>
+          <t>Romans 12:7</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>And again, - Praise the Lord, all you Gentiles, - and let all the peoples extol him.</t>
+          <t>if q service, in our serving; the one who teaches, in his teaching;</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Romans 15:12</t>
+          <t>Romans 12:8</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>And again Isaiah says, - , The root of Jesse will come, - even he who arises to rule the Gentiles; - in him will the Gentiles hope.</t>
+          <t>the one who exhorts, in his exhortation; the one who contributes, in generosity; r the one who leads, with zeal; the one who does acts of mercy, with s cheerfulness. Marks of the True Christian</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Romans 15:13</t>
+          <t>Romans 12:9</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>May the God of hope fill you with all joy and peace in believing, so that by the power of the Holy Spirit you may abound in hope. Paul the Minister to the Gentiles</t>
+          <t>t Let love be genuine. u Abhor what is evil; hold fast to what is good.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Romans 15:15</t>
+          <t>Romans 12:10</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>But on some points I have written to you very boldly by way of reminder, because of the grace given me by God</t>
+          <t>v Love one another with brotherly affection. w Outdo one another in showing honor.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Romans 15:16</t>
+          <t>Romans 12:11</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>to be a minister of Christ Jesus to the Gentiles in the priestly service of the gospel of God, so that the offering of the Gentiles may be acceptable, sanctified by the Holy Spirit.</t>
+          <t>Do not be slothful in zeal, x be fervent in spirit,</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Romans 15:17</t>
+          <t>Romans 12:12</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>In Christ Jesus, then, I have reason to be proud of my work for God.</t>
+          <t>y serve the Lord.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Romans 15:18</t>
+          <t>Romans 12:13</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>For I will not venture to speak of anything except what Christ has accomplished through me to bring the Gentiles to obedienc16 e by word and deed,</t>
+          <t>z Rejoice in hope, a be patient in tribulation, b be constant in prayer.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Romans 15:20</t>
+          <t>Romans 12:14</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>and thus I make it my ambition to preach the gospel, not where Christ has already been named, lest I build on someone else's foundation,</t>
+          <t>c Contribute to the needs of the saints and d seek to show hospitality.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Romans 15:21</t>
+          <t>Romans 12:15</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>but as it is written, - Those who have never been told of him will see, - and those who have never heard will understand. Paul's Plan to Visit Rome</t>
+          <t>e Bless those who persecute you; bless and do not curse them.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Romans 15:22</t>
+          <t>Romans 12:16</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>This is the reason why I have so often been hindered from coming to you.</t>
+          <t>f Rejoice with those who rejoice, weep with those who weep.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Romans 15:23</t>
+          <t>Romans 12:17</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>But now, since I no long173 er have any room for work in these regions, and since I have longed for many years to come to you,</t>
+          <t>g Live in harmony with one another. h Do not be haughty, but associate with the lowly.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Romans 15:24</t>
+          <t>Romans 12:18</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>I hope to see you in passing as I go to Spain, and to be helped on my journey there by you, once I have enjoyed your company for a while.</t>
+          <t>i Never be wise in your own sight.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Romans 15:25</t>
+          <t>Romans 12:19</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>At pres173 ent, however, I m going to Jerusalem bringing aid to the saints.</t>
+          <t>j Repay no one evil for evil, but k give thought to do what is honorable in the sight of all.</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Romans 15:26</t>
+          <t>Romans 12:18</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>For Macedonia and Achaia have been pleased to make some contribution for the poor among the saints at Jerusalem.</t>
+          <t>If possible, so far as it depends on you, l live peaceably with all.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Romans 15:27</t>
+          <t>Romans 12:19</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>For they were pleased to do it, and indeed they owe it to them. For if the Gentiles have come to share in their spiritual blessings, they ought also to be of service to them in material blessings.</t>
+          <t>Beloved, m never avenge yourselves, but leave i t to the wrath of God, for it is written, n Vengeance is mine, I will repay, says the Lord.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Romans 15:28</t>
+          <t>Romans 12:20</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>When therefore I have completed this and have delivered to them what has been collected, I will leave for Spain by way of you.</t>
+          <t>To the contrary, o if your enemy is hungry, feed him; if he is thirsty, give him something to drink; for by so doing you will heap burning coals on his head.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Romans 15:29</t>
+          <t>Romans 12:21</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>I know that when I come to you I will come in the fullness of the blessin16 g of Christ.</t>
+          <t>Do not be overcome by evil, but overcome evil with good. Submission to the Authorities</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Romans 15:30</t>
+          <t>Romans 13:1</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>I ppeal to you, brothers, by our Lord Jesus Christ and by the love of the Spirit, to strive together with me in your prayers to God on my behalf,</t>
+          <t>Let every person p be subject to the governing authorities. For q there is no authority except from God, and those that exist have been instituted by God.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Romans 15:32</t>
+          <t>Romans 13:2</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>so that by God's will I may come to you with joy and be refreshed in your company.</t>
+          <t>Therefore whoever resists the authorities resists what God has appointed, and those who resist will incur judgment.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Romans 15:33</t>
+          <t>Romans 13:3</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>May the God of peace be with you all. Amen. Personal Greetings</t>
+          <t>For rulers are not a terror to good conduct, but to bad. Would you have no fear of the one who is in authority? Then do what is good, and you r will receive his approval,</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Romans 16:1</t>
+          <t>Romans 13:4</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>I ommend to you our sister Phoebe, a servan16 t of the church at Cenchreae, 2</t>
+          <t>for s he is God s servant for your good. But if you do wrong, be afraid, for he does not bear the sword in vain. For he is the servant of God, t an avenger who carries out God s wrath on the wrongdoer.</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Romans 16:2</t>
+          <t>Romans 13:5</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>that you may welcome her in the Lord in a way worthy of the saints, and help her in whatever she may need from you, for she has been a patron of many and of myself as well. 3</t>
+          <t>Therefore one must be in subjection, not only to avoid God s wrath but also u for the sake of conscience.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Romans 16:3</t>
+          <t>Romans 13:6</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Greet Prisca and Aquila, my fellow workers in Christ Jesus, 4</t>
+          <t>For because of this you also pay taxes, for the authorities are ministers of God, attending to this very thing.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Romans 16:4</t>
+          <t>Romans 13:7</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>who risked their necks for my life, to whom not only I give thanks but all the churches of the Gentiles give thanks as well. 5</t>
+          <t>v Pay to all what is owed to them: taxes to whom taxes are owed, revenue to whom revenue is owed, respect to whom respect is owed, honor to whom honor is owed. Fulfilling the Law Through Love</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Romans 16:5</t>
+          <t>Romans 13:8</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Greet also the church in their house. Greet my beloved Epaenetus, who was the first conver16 t to Christ in Asia. 6</t>
+          <t>w Owe no one anything, except to love each other, for x the one who loves another has fulfilled the law.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Romans 16:6</t>
+          <t>Romans 13:9</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Greet Mary, who has worked hard for you. 7</t>
+          <t>For the commandments, y You shall not commit adultery, You shall not murder, You shall not steal, You shall not covet, and any other commandment, are summed up in this word: z You shall love your neighbor as yourself.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Romans 16:7</t>
+          <t>Romans 13:10</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Greet Andronicus and Junia, my kinsmen and my fellow prisoners. They are well known to the apostles, and they were in Christ before me. 8</t>
+          <t>Love does no wrong to a neighbor; therefore a love is the fulfilling of the law.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Romans 16:8</t>
+          <t>Romans 13:11</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Greet Ampliatus, my beloved in the Lord. 9</t>
+          <t>Besides this you know the time, that the hour has come for you b to wake from sleep. c For salvation is nearer to us now than when we first believed.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Romans 16:9</t>
+          <t>Romans 13:12</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Greet Urbanus, our fellow worker in Christ, and my beloved Stachys.</t>
+          <t>d The night is far gone; the day is at hand. So then let us e cast off f the works of darkness and g put on the armor of light.</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Romans 16:10</t>
+          <t>Romans 13:13</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Greet Apelles, who is approved in Christ. Greet those who belong to the family of Aristobulus.</t>
+          <t>h Let us walk properly as in the daytime, i not in orgies and drunkenness, not in sexual immorality and sensuality, j not in quarreling and jealousy.</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Romans 16:11</t>
+          <t>Romans 13:14</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Greet my kinsman Herodion. Greet those in the Lord who belong to the family of Narcissus.</t>
+          <t>But k put on the Lord Jesus Christ, and make no provision for the flesh, l to gratify its desires. Do Not Pass Judgment on One Another</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Romans 16:12</t>
+          <t>Romans 14:1</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Greet those workers in the Lord, Tryphaena and Tryphosa. Greet the beloved Persis, who has worked hard in the Lord.</t>
+          <t>As for m the one who is weak in faith, welcome him, but not to quarrel over opinions.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Romans 16:13</t>
+          <t>Romans 14:2</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Greet Rufus, chosen in the Lord; also his mother, who has been a mother to me as well.</t>
+          <t>n One person believes he may eat anything, while the weak person eats only vegetables.</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Romans 16:14</t>
+          <t>Romans 14:3</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Greet Asyncritus, Phlegon, Hermes, Patrobas, Hermas, and the brother's who are with them.</t>
+          <t>Let not the one who eats despise the one who abstains, and o let not the one who abstains pass judgment on the one who eats, for God has welcomed him.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Romans 16:15</t>
+          <t>Romans 14:4</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Greet Philologus, Julia, Nereus and his sister, and Olympas, and all the saints who are with them.</t>
+          <t>p Who are you to pass judgment on the servant of another? It is before his own master that he stands or falls. And he will be upheld, for the Lord is able to make him stand.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Romans 16:17</t>
+          <t>Romans 14:5</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>I ppeal to you, brothers, to watch out for those who cause divisions and create obstacles contrary to the doctrine that you have been taught; avoid them.</t>
+          <t>q One person esteems one day as better than another, while another esteems all days alike. r Each one should be fully convinced in his own mind.</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Romans 16:18</t>
+          <t>Romans 14:6</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>For such persons do not serve our Lord Christ, but their own appetites, and by smooth talk and flattery they deceive the hearts of the naive.</t>
+          <t>The one who observes the day, observes it in honor of the Lord. The one who eats, eats in honor of the Lord, since s he gives thanks to God, while the one who abstains, abstains in honor of the Lord and gives thanks to God.</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Romans 16:19</t>
+          <t>Romans 14:7</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>For your obedience is known to all, so that I rejoice over you, but I want you to be wise as to what is good and innocent as to what is evil.</t>
+          <t>For t none of us lives to himself, and none of us dies to himself.</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Romans 16:22</t>
+          <t>Romans 14:8</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>I Tertius, who wrote this letter, greet you in the Lord.</t>
+          <t>For if we live, we live to the Lord, and if we die, we die to the Lord. So then, u whether we live or whether we die, we are the Lord s.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Romans 16:26</t>
+          <t>Romans 14:9</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>but has now been disclosed and through the prophetic writings has been made known to all nations, according to the command of the eternal God, to bring about the obedience of fait16 h16</t>
+          <t>For to this end Christ v died and lived again, that he might be Lord both w of the dead and of the living.</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
+          <t>Romans 14:10</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Why do you pass judgment on your brother? Or you, why do you despise your brother? For w we will all stand before x the judgment seat of God;</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Romans 14:11</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>for it is written, y As I live, says the Lord, every knee shall bow to me, and every tongue shall confes s to God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Romans 14:12</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>So then z each of us will give an account of himself to God. Do Not Cause Another to Stumble</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Romans 14:13</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>a Therefore let us not pass judgment on one another any long?er, but rather decide b never to put a stumbling block or hindrance in the way of a brother.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Romans 14:14</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>I know and am persuaded in the Lord Jesus c that nothing is unclean in itself, d but it is unclean for anyone who thinks it unclean.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Romans 14:15</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>For if your brother is grieved by what you eat, e you are no long?er walking in love. f By what you eat, do not destroy the one for whom Christ died.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Romans 14:16</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>g So do not let what you regard as good be spoken of as evil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Romans 14:17</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>h For the kingdom of God is not a matter of eating and drinking but i of righteousness and j peace and joy in the Holy Spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Romans 14:18</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Whoever thus serves Christ is k acceptable to God and approved by men.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Romans 14:19</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>So then let us l pursue what makes for peace and for m mutual upbuilding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Romans 14:20</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>n Do not, for the sake of food, destroy the work of God. o Everything is indeed clean, but p it is wrong for anyone to make another stumble by what he eats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Romans 14:21</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>q It is good not to eat meat or drink wine or do anything that causes your brother to stumble.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Romans 14:22</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>The faith that you have, keep between yourself and God. r Blessed is the one who has no reason to pass judgment on himself for what he approves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Romans 14:23</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>But whoever has doubts is condemned if he eats, because the eating is not from faith. For whatever does not proceed from faith is sin. The Example of Christ</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Romans 14:24</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>s We who are strong t have an obligation to bear with the failings of the weak, and not to please ourselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Romans 14:25</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>u Let each of us please his neighbor for his good, to build him up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Romans 15:3</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>For v Christ did not please himself, but as it is written, w The reproaches of those who reproached you fell on me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Romans 15:4</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>For x whatever was written in former days was written for our y instruction, that through endurance and through z the encouragement of the Scriptures we might have hope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Romans 15:5</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>May the God of endurance and encouragement grant you a to live in such harmony with one another, in accord with Christ Jesus,</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Romans 15:6</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>that together you may with one voice glorify b the God and Father of our Lord Jesus Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Romans 15:7</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Therefore welcome one another as Christ has welcomed you, for the glory of God. Christ the Hope of Jews and Gentiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Romans 15:8</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>For I tell you that Christ c became a servant to the circumcised to show God s truthfulness, in order d to confirm the promises given to the patriarchs,</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Romans 15:9</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>and in order e that the Gentiles might glorify God for his mercy. As it is written, f Therefore I will praise you among the Gentiles, and sing to your name.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Romans 15:10</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>And again it says, g Rejoice, O Gentiles, with his people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Romans 15:11</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>And again, h Praise the Lord, all you Gentiles, and let all the peoples extol him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Romans 15:12</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>And again Isaiah says, i, j The root of Jesse will come, even he who arises to rule the Gentiles; k in him will the Gentiles hope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Romans 15:13</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>May the God of hope fill you with all l joy and peace in believing, so that by the power of the Holy Spirit you may abound in hope. Paul the Minister to the Gentiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Romans 15:14</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>m I myself am satisfied about you, my brothers, that you yourselves are full of goodness, filled with n all knowledge and able to instruct one another.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Romans 15:15</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>But on some points I have written to you very boldly by way of reminder, o because of the grace given me by God</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Romans 15:16</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>to be p a minister of Christ Jesus to the Gentiles q in the priestly service of the gospel of God, so that r the offering of the Gentiles may be acceptable, sanctified by the Holy Spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Romans 15:17</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>In Christ Jesus, then, I have s reason to be proud of t my work for God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Romans 15:18</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>For I will not venture to speak of anything except u what Christ has accomplished through me v to bring the Gentiles to obedienc e by word and deed,</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Romans 15:19</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>w by the power of signs and wonders, by the power of the Spirit of Go d so that x from Jerusalem and all the way around y to Illyricum I have fulfilled the ministry of the gospel of Christ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Romans 15:20</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>and thus I make it my ambition to preach the gospel, not where Christ has already been named, z lest I build on someone else s foundation,</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Romans 15:21</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>but as it is written, a Those who have never been told of him will see, and those who have never heard will understand. Paul s Plan to Visit Rome</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Romans 15:22</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>This is the reason why b I have so often been hindered from coming to you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Romans 15:23</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>But now, since I no long?er have any room for work in these regions, and c since I have longed for many years to come to you,</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Romans 15:24</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>I hope to see you in passing as I go d to Spain, and e to be helped on my journey there by you, once I have enjoyed your company for a while.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Romans 15:25</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>At pres?ent, however, f I am going to Jerusalem bringing aid to the saints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Romans 15:26</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>For g Macedonia and Achaia have been pleased to make some contribution for the poor among the saints at Jerusalem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Romans 15:27</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>For they were pleased to do it, and indeed h they owe it to them. For if the Gentiles have come to share in their spiritual blessings, they ought also to be of service to them in material blessings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Romans 15:28</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>When therefore I have completed this and have delivered to them what has been collected, I will leave i for Spain by way of you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Romans 15:29</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>I know that when I come to you I will come in the fullness of the blessin g of Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Romans 15:30</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>I appeal to you, brothers, by our Lord Jesus Christ and by j the love of the Spirit, k to strive together with me in your prayers to God on my behalf,</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Romans 15:31</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>l that I may be delivered from the unbelievers in Judea, and that m my service for Jerusalem may be acceptable to the saints,</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Romans 15:32</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>so that by God s will I may come to you with joy and n be refreshed in your company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Romans 15:33</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>May o the God of peace be with you all. Amen. Personal Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Romans 16:1</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>I commend to you our sister Phoebe, a servan t of the church at p Cenchreae,</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Romans 16:2</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>that you q may welcome her in the Lord in a way worthy of the saints, and help her in whatever she may need from you, for she has been a patron of many and of myself as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Romans 16:3</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Greet r Prisca and Aquila, my fellow workers in Christ Jesus,</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Romans 16:4</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>who risked their necks for my life, to whom not only I give thanks but all the churches of the Gentiles give thanks as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Romans 16:5</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Greet also s the church in their house. Greet my beloved Epaenetus, who was t the first conver t to Christ in Asia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Romans 16:6</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Greet Mary, who has worked hard for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Romans 16:7</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Greet Andronicus and Junia, my kinsmen and my u fellow prisoners. They are well known to the apostles, and they were in Christ before me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Romans 16:8</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Greet Ampliatus, my beloved in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Romans 16:9</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Greet Urbanus, our fellow worker in Christ, and my beloved Stachys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Romans 16:10</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Greet Apelles, who is approved in Christ. Greet those v who belong to the family of Aristobulus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Romans 16:11</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Greet my kinsman Herodion. Greet those in the Lord who belong to the family of Narcissus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Romans 16:12</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Greet those workers in the Lord, Tryphaena and Tryphosa. Greet the beloved Persis, who has worked hard in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Romans 16:13</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Greet Rufus, chosen in the Lord; also his mother, who has been a mother to me as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Romans 16:14</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Greet Asyncritus, Phlegon, Hermes, Patrobas, Hermas, and the brother s who are with them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Romans 16:15</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Greet Philologus, Julia, Nereus and his sister, and Olympas, and all the saints who are with them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Romans 16:16</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>w Greet one another with a holy kiss. All the churches of Christ greet you. Final Instructions and Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Romans 16:17</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>I appeal to you, brothers, to watch out for those who cause divisions and create obstacles x contrary to the doctrine that you have been taught; y avoid them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Romans 16:18</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>For such persons do not serve our Lord Christ, but z their own appetites, and a by smooth talk and flattery they deceive the hearts of the naive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Romans 16:19</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>For b your obedience is known to all, so that I rejoice over you, but I want you c to be wise as to what is good and innocent as to what is evil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Romans 16:20</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>d The God of peace e will soon crush Satan under your feet. f The grace of our Lord Jesus Christ be with you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Romans 16:21</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>g Timothy, my fellow worker, greets you; so do Lucius and Jason and Sosipater, my kinsmen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Romans 16:22</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>I Tertius, h who wrote this letter, greet you in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Romans 16:23</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>i Gaius, who is host to me and to the whole church, greets you. Erastus, the city treasurer, and our brother Quartus, greet you. Doxology</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Romans 16:24</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>j Now to him who is able to strengthen you k according to my gospel and the preaching of Jesus Christ, l according to the revelation of the mystery m that was kept secret for n long ages</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Romans 16:26</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>but o has now been disclosed and through the prophetic writings has been made known to all nations, according to the command of the eternal God, p to bring about the obedience of fait h</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
           <t>Romans 16:27</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>to the only wise God be glory forevermore through Jesus Christ! Amen.</t>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>to q the only wise God r be glory forevermore through Jesus Christ! Amen.</t>
         </is>
       </c>
     </row>
